--- a/BackTest/2019-10-14 BackTest IOST.xlsx
+++ b/BackTest/2019-10-14 BackTest IOST.xlsx
@@ -973,7 +973,9 @@
       <c r="J12" t="n">
         <v>0.3099999999999987</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-57.14285714285718</v>
+      </c>
       <c r="L12" t="n">
         <v>7.484</v>
       </c>
@@ -1028,7 +1030,9 @@
       <c r="J13" t="n">
         <v>0.3899999999999988</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-22.22222222222209</v>
+      </c>
       <c r="L13" t="n">
         <v>7.476000000000001</v>
       </c>
@@ -1079,7 +1083,9 @@
       <c r="J14" t="n">
         <v>0.4099999999999993</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-15.15151515151513</v>
+      </c>
       <c r="L14" t="n">
         <v>7.465999999999999</v>
       </c>
@@ -1134,7 +1140,9 @@
       <c r="J15" t="n">
         <v>0.4799999999999995</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-48.5714285714286</v>
+      </c>
       <c r="L15" t="n">
         <v>7.453999999999999</v>
       </c>
@@ -1185,7 +1193,9 @@
       <c r="J16" t="n">
         <v>0.4999999999999991</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L16" t="n">
         <v>7.435</v>
       </c>
@@ -1238,7 +1248,9 @@
       <c r="J17" t="n">
         <v>0.5199999999999987</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-28.57142857142867</v>
+      </c>
       <c r="L17" t="n">
         <v>7.428</v>
       </c>
@@ -1295,7 +1307,9 @@
       <c r="J18" t="n">
         <v>0.5399999999999983</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-28.57142857142867</v>
+      </c>
       <c r="L18" t="n">
         <v>7.418000000000001</v>
       </c>
@@ -1352,7 +1366,9 @@
       <c r="J19" t="n">
         <v>0.5899999999999981</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-37.50000000000011</v>
+      </c>
       <c r="L19" t="n">
         <v>7.404999999999999</v>
       </c>
@@ -1407,7 +1423,9 @@
       <c r="J20" t="n">
         <v>0.5999999999999988</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-37.50000000000011</v>
+      </c>
       <c r="L20" t="n">
         <v>7.392</v>
       </c>
@@ -1462,7 +1480,9 @@
       <c r="J21" t="n">
         <v>0.6099999999999994</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-26.66666666666663</v>
+      </c>
       <c r="L21" t="n">
         <v>7.381</v>
       </c>
@@ -1517,7 +1537,9 @@
       <c r="J22" t="n">
         <v>0.6299999999999999</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-74.99999999999991</v>
+      </c>
       <c r="L22" t="n">
         <v>7.371</v>
       </c>
@@ -1577,7 +1599,7 @@
         <v>0.7700000000000005</v>
       </c>
       <c r="K23" t="n">
-        <v>-16.21621621621611</v>
+        <v>-5.555555555555419</v>
       </c>
       <c r="L23" t="n">
         <v>7.366999999999999</v>
@@ -1638,7 +1660,7 @@
         <v>0.830000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>-22.49999999999995</v>
+        <v>-2.857142857142784</v>
       </c>
       <c r="L24" t="n">
         <v>7.358999999999999</v>
@@ -1695,7 +1717,7 @@
         <v>0.830000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>-17.3333333333333</v>
+        <v>3.030303030302949</v>
       </c>
       <c r="L25" t="n">
         <v>7.357999999999999</v>
@@ -1752,7 +1774,7 @@
         <v>0.9000000000000012</v>
       </c>
       <c r="K26" t="n">
-        <v>-32.46753246753241</v>
+        <v>-21.05263157894725</v>
       </c>
       <c r="L26" t="n">
         <v>7.351999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>0.9000000000000012</v>
       </c>
       <c r="K27" t="n">
-        <v>-22.38805970149253</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L27" t="n">
         <v>7.343999999999999</v>
@@ -1866,7 +1888,7 @@
         <v>0.9100000000000019</v>
       </c>
       <c r="K28" t="n">
-        <v>-22.38805970149237</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>7.338999999999999</v>
@@ -1923,7 +1945,7 @@
         <v>0.9300000000000024</v>
       </c>
       <c r="K29" t="n">
-        <v>-22.38805970149247</v>
+        <v>-3.030303030302933</v>
       </c>
       <c r="L29" t="n">
         <v>7.336999999999998</v>
@@ -1978,7 +2000,7 @@
         <v>0.9400000000000022</v>
       </c>
       <c r="K30" t="n">
-        <v>-19.40298507462688</v>
+        <v>-3.03030303030321</v>
       </c>
       <c r="L30" t="n">
         <v>7.336999999999998</v>
@@ -2035,7 +2057,7 @@
         <v>0.950000000000002</v>
       </c>
       <c r="K31" t="n">
-        <v>-19.40298507462677</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>7.334999999999996</v>
@@ -2098,7 +2120,7 @@
         <v>0.950000000000002</v>
       </c>
       <c r="K32" t="n">
-        <v>-15.62500000000001</v>
+        <v>-77.77777777777744</v>
       </c>
       <c r="L32" t="n">
         <v>7.334999999999996</v>
@@ -2161,7 +2183,7 @@
         <v>1.000000000000002</v>
       </c>
       <c r="K33" t="n">
-        <v>-21.31147540983609</v>
+        <v>-17.64705882352947</v>
       </c>
       <c r="L33" t="n">
         <v>7.325999999999996</v>
@@ -2224,7 +2246,7 @@
         <v>1.010000000000002</v>
       </c>
       <c r="K34" t="n">
-        <v>-19.99999999999994</v>
+        <v>-22.22222222222217</v>
       </c>
       <c r="L34" t="n">
         <v>7.321999999999997</v>
@@ -2287,7 +2309,7 @@
         <v>1.050000000000002</v>
       </c>
       <c r="K35" t="n">
-        <v>-1.754385964912237</v>
+        <v>46.66666666666674</v>
       </c>
       <c r="L35" t="n">
         <v>7.321999999999997</v>
@@ -2350,7 +2372,7 @@
         <v>1.100000000000001</v>
       </c>
       <c r="K36" t="n">
-        <v>9.999999999999897</v>
+        <v>60</v>
       </c>
       <c r="L36" t="n">
         <v>7.333999999999998</v>
@@ -2413,7 +2435,7 @@
         <v>1.280000000000002</v>
       </c>
       <c r="K37" t="n">
-        <v>28.94736842105259</v>
+        <v>78.37837837837837</v>
       </c>
       <c r="L37" t="n">
         <v>7.363999999999997</v>
@@ -2476,7 +2498,7 @@
         <v>1.280000000000002</v>
       </c>
       <c r="K38" t="n">
-        <v>32.43243243243229</v>
+        <v>88.5714285714288</v>
       </c>
       <c r="L38" t="n">
         <v>7.392999999999998</v>
@@ -2535,7 +2557,7 @@
         <v>1.420000000000003</v>
       </c>
       <c r="K39" t="n">
-        <v>18.07228915662634</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>7.409999999999998</v>
@@ -2594,7 +2616,7 @@
         <v>1.560000000000003</v>
       </c>
       <c r="K40" t="n">
-        <v>31.24999999999993</v>
+        <v>50.81967213114752</v>
       </c>
       <c r="L40" t="n">
         <v>7.439999999999998</v>
@@ -2649,7 +2671,7 @@
         <v>1.720000000000003</v>
       </c>
       <c r="K41" t="n">
-        <v>11.71171171171166</v>
+        <v>19.48051948051949</v>
       </c>
       <c r="L41" t="n">
         <v>7.454999999999998</v>
@@ -2706,7 +2728,7 @@
         <v>1.730000000000003</v>
       </c>
       <c r="K42" t="n">
-        <v>12.72727272727274</v>
+        <v>12.32876712328775</v>
       </c>
       <c r="L42" t="n">
         <v>7.468999999999999</v>
@@ -2765,7 +2787,7 @@
         <v>1.780000000000004</v>
       </c>
       <c r="K43" t="n">
-        <v>-4.950495049505004</v>
+        <v>6.493506493506452</v>
       </c>
       <c r="L43" t="n">
         <v>7.472999999999999</v>
@@ -2828,7 +2850,7 @@
         <v>1.790000000000004</v>
       </c>
       <c r="K44" t="n">
-        <v>2.083333333333374</v>
+        <v>2.702702702702755</v>
       </c>
       <c r="L44" t="n">
         <v>7.478999999999999</v>
@@ -2889,7 +2911,7 @@
         <v>1.810000000000004</v>
       </c>
       <c r="K45" t="n">
-        <v>4.081632653061215</v>
+        <v>-1.408450704225317</v>
       </c>
       <c r="L45" t="n">
         <v>7.483</v>
@@ -2950,7 +2972,7 @@
         <v>1.810000000000004</v>
       </c>
       <c r="K46" t="n">
-        <v>12.08791208791209</v>
+        <v>-35.84905660377352</v>
       </c>
       <c r="L46" t="n">
         <v>7.481999999999999</v>
@@ -3011,7 +3033,7 @@
         <v>1.830000000000004</v>
       </c>
       <c r="K47" t="n">
-        <v>9.677419354838765</v>
+        <v>-38.18181818181807</v>
       </c>
       <c r="L47" t="n">
         <v>7.461</v>
@@ -3070,7 +3092,7 @@
         <v>1.930000000000003</v>
       </c>
       <c r="K48" t="n">
-        <v>17.64705882352936</v>
+        <v>5.882352941176512</v>
       </c>
       <c r="L48" t="n">
         <v>7.45</v>
@@ -3127,7 +3149,7 @@
         <v>2.000000000000004</v>
       </c>
       <c r="K49" t="n">
-        <v>12.14953271028035</v>
+        <v>-40.90909090909101</v>
       </c>
       <c r="L49" t="n">
         <v>7.446000000000001</v>
@@ -3184,7 +3206,7 @@
         <v>2.160000000000004</v>
       </c>
       <c r="K50" t="n">
-        <v>22.95081967213114</v>
+        <v>31.81818181818172</v>
       </c>
       <c r="L50" t="n">
         <v>7.444000000000001</v>
@@ -3241,7 +3263,7 @@
         <v>2.170000000000003</v>
       </c>
       <c r="K51" t="n">
-        <v>22.95081967213114</v>
+        <v>31.81818181818172</v>
       </c>
       <c r="L51" t="n">
         <v>7.457000000000001</v>
@@ -3298,7 +3320,7 @@
         <v>2.180000000000003</v>
       </c>
       <c r="K52" t="n">
-        <v>21.95121951219513</v>
+        <v>45.00000000000021</v>
       </c>
       <c r="L52" t="n">
         <v>7.470000000000002</v>
@@ -3355,7 +3377,7 @@
         <v>2.180000000000003</v>
       </c>
       <c r="K53" t="n">
-        <v>18.6440677966102</v>
+        <v>43.5897435897437</v>
       </c>
       <c r="L53" t="n">
         <v>7.488000000000001</v>
@@ -3412,7 +3434,7 @@
         <v>2.180000000000003</v>
       </c>
       <c r="K54" t="n">
-        <v>19.65811965811967</v>
+        <v>40.54054054054072</v>
       </c>
       <c r="L54" t="n">
         <v>7.505000000000001</v>
@@ -3469,7 +3491,7 @@
         <v>2.200000000000003</v>
       </c>
       <c r="K55" t="n">
-        <v>18.26086956521737</v>
+        <v>43.5897435897437</v>
       </c>
       <c r="L55" t="n">
         <v>7.522000000000001</v>
@@ -3526,7 +3548,7 @@
         <v>2.360000000000003</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>5.660377358490452</v>
       </c>
       <c r="L56" t="n">
         <v>7.523000000000001</v>
@@ -3583,7 +3605,7 @@
         <v>2.430000000000003</v>
       </c>
       <c r="K57" t="n">
-        <v>-9.565217391304365</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>7.532999999999999</v>
@@ -3640,7 +3662,7 @@
         <v>2.440000000000003</v>
       </c>
       <c r="K58" t="n">
-        <v>-10.3448275862069</v>
+        <v>13.63636363636377</v>
       </c>
       <c r="L58" t="n">
         <v>7.531999999999999</v>
@@ -3697,7 +3719,7 @@
         <v>2.450000000000003</v>
       </c>
       <c r="K59" t="n">
-        <v>0.9708737864078323</v>
+        <v>-37.93103448275853</v>
       </c>
       <c r="L59" t="n">
         <v>7.537000000000001</v>
@@ -3754,7 +3776,7 @@
         <v>2.460000000000004</v>
       </c>
       <c r="K60" t="n">
-        <v>-15.55555555555561</v>
+        <v>-37.93103448275873</v>
       </c>
       <c r="L60" t="n">
         <v>7.525</v>
@@ -3805,7 +3827,7 @@
         <v>2.530000000000003</v>
       </c>
       <c r="K61" t="n">
-        <v>-6.172839506172821</v>
+        <v>-48.5714285714286</v>
       </c>
       <c r="L61" t="n">
         <v>7.507000000000001</v>
@@ -3856,7 +3878,7 @@
         <v>2.690000000000003</v>
       </c>
       <c r="K62" t="n">
-        <v>-20.83333333333335</v>
+        <v>-64.70588235294122</v>
       </c>
       <c r="L62" t="n">
         <v>7.474000000000001</v>
@@ -3907,7 +3929,7 @@
         <v>2.690000000000003</v>
       </c>
       <c r="K63" t="n">
-        <v>-16.48351648351644</v>
+        <v>-64.70588235294122</v>
       </c>
       <c r="L63" t="n">
         <v>7.441</v>
@@ -3958,7 +3980,7 @@
         <v>2.690000000000003</v>
       </c>
       <c r="K64" t="n">
-        <v>-17.77777777777782</v>
+        <v>-71.42857142857133</v>
       </c>
       <c r="L64" t="n">
         <v>7.407999999999999</v>
@@ -4009,7 +4031,7 @@
         <v>2.710000000000004</v>
       </c>
       <c r="K65" t="n">
-        <v>-22.22222222222225</v>
+        <v>-59.9999999999999</v>
       </c>
       <c r="L65" t="n">
         <v>7.370999999999998</v>
@@ -4060,7 +4082,7 @@
         <v>2.710000000000004</v>
       </c>
       <c r="K66" t="n">
-        <v>-22.22222222222225</v>
+        <v>-100</v>
       </c>
       <c r="L66" t="n">
         <v>7.349999999999997</v>
@@ -4111,7 +4133,7 @@
         <v>2.710000000000004</v>
       </c>
       <c r="K67" t="n">
-        <v>-20.45454545454552</v>
+        <v>-100</v>
       </c>
       <c r="L67" t="n">
         <v>7.321999999999997</v>
@@ -4162,7 +4184,7 @@
         <v>2.850000000000004</v>
       </c>
       <c r="K68" t="n">
-        <v>-15.21739130434778</v>
+        <v>-29.99999999999993</v>
       </c>
       <c r="L68" t="n">
         <v>7.308999999999997</v>
@@ -4213,7 +4235,7 @@
         <v>2.910000000000005</v>
       </c>
       <c r="K69" t="n">
-        <v>-14.28571428571426</v>
+        <v>-37.77777777777767</v>
       </c>
       <c r="L69" t="n">
         <v>7.290999999999997</v>
@@ -4264,7 +4286,7 @@
         <v>2.920000000000004</v>
       </c>
       <c r="K70" t="n">
-        <v>-36.84210526315789</v>
+        <v>-23.07692307692318</v>
       </c>
       <c r="L70" t="n">
         <v>7.274999999999997</v>
@@ -4315,7 +4337,7 @@
         <v>2.930000000000004</v>
       </c>
       <c r="K71" t="n">
-        <v>-36.84210526315789</v>
+        <v>24.99999999999972</v>
       </c>
       <c r="L71" t="n">
         <v>7.264999999999996</v>
@@ -4366,7 +4388,7 @@
         <v>2.990000000000005</v>
       </c>
       <c r="K72" t="n">
-        <v>-25.92592592592587</v>
+        <v>39.99999999999982</v>
       </c>
       <c r="L72" t="n">
         <v>7.276999999999997</v>
@@ -4417,7 +4439,7 @@
         <v>3.010000000000005</v>
       </c>
       <c r="K73" t="n">
-        <v>-27.71084337349397</v>
+        <v>31.24999999999969</v>
       </c>
       <c r="L73" t="n">
         <v>7.286999999999997</v>
@@ -4468,7 +4490,7 @@
         <v>3.030000000000006</v>
       </c>
       <c r="K74" t="n">
-        <v>-24.70588235294111</v>
+        <v>43.74999999999989</v>
       </c>
       <c r="L74" t="n">
         <v>7.298999999999998</v>
@@ -4519,7 +4541,7 @@
         <v>3.030000000000006</v>
       </c>
       <c r="K75" t="n">
-        <v>-27.71084337349383</v>
+        <v>43.74999999999989</v>
       </c>
       <c r="L75" t="n">
         <v>7.312999999999998</v>
@@ -4570,7 +4592,7 @@
         <v>3.030000000000006</v>
       </c>
       <c r="K76" t="n">
-        <v>-10.44776119402972</v>
+        <v>43.74999999999989</v>
       </c>
       <c r="L76" t="n">
         <v>7.326999999999998</v>
@@ -4621,7 +4643,7 @@
         <v>3.030000000000006</v>
       </c>
       <c r="K77" t="n">
-        <v>-23.33333333333319</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>7.340999999999998</v>
@@ -4672,7 +4694,7 @@
         <v>3.040000000000005</v>
       </c>
       <c r="K78" t="n">
-        <v>-19.99999999999994</v>
+        <v>53.84615384615374</v>
       </c>
       <c r="L78" t="n">
         <v>7.341999999999999</v>
@@ -4723,7 +4745,7 @@
         <v>3.050000000000005</v>
       </c>
       <c r="K79" t="n">
-        <v>-19.99999999999994</v>
+        <v>38.46153846153877</v>
       </c>
       <c r="L79" t="n">
         <v>7.347999999999999</v>
@@ -4774,7 +4796,7 @@
         <v>3.050000000000005</v>
       </c>
       <c r="K80" t="n">
-        <v>-18.64406779661002</v>
+        <v>50</v>
       </c>
       <c r="L80" t="n">
         <v>7.352999999999999</v>
@@ -4825,7 +4847,7 @@
         <v>3.120000000000005</v>
       </c>
       <c r="K81" t="n">
-        <v>5.084745762711742</v>
+        <v>53.84615384615342</v>
       </c>
       <c r="L81" t="n">
         <v>7.365999999999998</v>
@@ -4876,7 +4898,7 @@
         <v>3.150000000000004</v>
       </c>
       <c r="K82" t="n">
-        <v>34.78260869565214</v>
+        <v>42.85714285714358</v>
       </c>
       <c r="L82" t="n">
         <v>7.369999999999999</v>
@@ -4927,7 +4949,7 @@
         <v>3.240000000000005</v>
       </c>
       <c r="K83" t="n">
-        <v>12.72727272727258</v>
+        <v>-23.80952380952425</v>
       </c>
       <c r="L83" t="n">
         <v>7.366999999999999</v>
@@ -4978,7 +5000,7 @@
         <v>3.310000000000004</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>-42.85714285714312</v>
       </c>
       <c r="L84" t="n">
         <v>7.354999999999999</v>

--- a/BackTest/2019-10-14 BackTest IOST.xlsx
+++ b/BackTest/2019-10-14 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S84"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,65 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -463,37 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.59</v>
+        <v>7.62</v>
       </c>
       <c r="C2" t="n">
-        <v>7.59</v>
+        <v>7.52</v>
       </c>
       <c r="D2" t="n">
-        <v>7.59</v>
+        <v>7.62</v>
       </c>
       <c r="E2" t="n">
-        <v>7.59</v>
+        <v>7.52</v>
       </c>
       <c r="F2" t="n">
-        <v>132.1343</v>
+        <v>363304.5781</v>
       </c>
       <c r="G2" t="n">
-        <v>7.678166666666661</v>
+        <v>-39.78494623655905</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -502,41 +468,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.56</v>
+        <v>7.51</v>
       </c>
       <c r="C3" t="n">
-        <v>7.56</v>
+        <v>7.51</v>
       </c>
       <c r="D3" t="n">
-        <v>7.56</v>
+        <v>7.51</v>
       </c>
       <c r="E3" t="n">
-        <v>7.56</v>
+        <v>7.5</v>
       </c>
       <c r="F3" t="n">
-        <v>73690.016</v>
+        <v>64948.0701</v>
       </c>
       <c r="G3" t="n">
-        <v>7.676833333333329</v>
+        <v>-34.88372093023246</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.03000000000000025</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03000000000000025</v>
+        <v>7.52</v>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -545,45 +509,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7.56</v>
+        <v>7.52</v>
       </c>
       <c r="C4" t="n">
-        <v>7.56</v>
+        <v>7.5</v>
       </c>
       <c r="D4" t="n">
-        <v>7.56</v>
+        <v>7.52</v>
       </c>
       <c r="E4" t="n">
-        <v>7.56</v>
+        <v>7.5</v>
       </c>
       <c r="F4" t="n">
-        <v>33590.275</v>
+        <v>183175.3629</v>
       </c>
       <c r="G4" t="n">
-        <v>7.675499999999996</v>
+        <v>-34.88372093023246</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.03000000000000025</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03000000000000025</v>
+        <v>7.51</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -595,42 +553,36 @@
         <v>7.5</v>
       </c>
       <c r="C5" t="n">
-        <v>7.51</v>
+        <v>7.5</v>
       </c>
       <c r="D5" t="n">
-        <v>7.51</v>
+        <v>7.5</v>
       </c>
       <c r="E5" t="n">
         <v>7.5</v>
       </c>
       <c r="F5" t="n">
-        <v>36679.2896</v>
+        <v>51.6</v>
       </c>
       <c r="G5" t="n">
-        <v>7.673333333333329</v>
+        <v>-15.15151515151505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.08000000000000007</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08000000000000007</v>
+        <v>7.5</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="n">
-        <v>7.824</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -639,49 +591,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.56</v>
+        <v>7.5</v>
       </c>
       <c r="C6" t="n">
-        <v>7.56</v>
+        <v>7.5</v>
       </c>
       <c r="D6" t="n">
-        <v>7.56</v>
+        <v>7.5</v>
       </c>
       <c r="E6" t="n">
-        <v>7.56</v>
+        <v>7.5</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>2222.513</v>
       </c>
       <c r="G6" t="n">
-        <v>7.669999999999996</v>
+        <v>-72.72727272727259</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.03000000000000025</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1299999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -690,49 +632,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.47</v>
+        <v>7.52</v>
       </c>
       <c r="C7" t="n">
-        <v>7.46</v>
+        <v>7.52</v>
       </c>
       <c r="D7" t="n">
-        <v>7.47</v>
+        <v>7.52</v>
       </c>
       <c r="E7" t="n">
-        <v>7.46</v>
+        <v>7.52</v>
       </c>
       <c r="F7" t="n">
-        <v>31374.619</v>
+        <v>150</v>
       </c>
       <c r="G7" t="n">
-        <v>7.662333333333328</v>
+        <v>-58.974358974359</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.1299999999999999</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2299999999999995</v>
+        <v>7.5</v>
       </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="n">
-        <v>7.772</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -741,49 +673,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.47</v>
+        <v>7.59</v>
       </c>
       <c r="C8" t="n">
-        <v>7.47</v>
+        <v>7.59</v>
       </c>
       <c r="D8" t="n">
-        <v>7.47</v>
+        <v>7.59</v>
       </c>
       <c r="E8" t="n">
-        <v>7.47</v>
+        <v>7.59</v>
       </c>
       <c r="F8" t="n">
-        <v>21581.638</v>
+        <v>123.5231</v>
       </c>
       <c r="G8" t="n">
-        <v>7.657999999999996</v>
+        <v>-6.250000000000121</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1200000000000001</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2399999999999993</v>
+        <v>7.52</v>
       </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -792,49 +714,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7.46</v>
+        <v>7.67</v>
       </c>
       <c r="C9" t="n">
-        <v>7.45</v>
+        <v>7.67</v>
       </c>
       <c r="D9" t="n">
-        <v>7.46</v>
+        <v>7.67</v>
       </c>
       <c r="E9" t="n">
-        <v>7.45</v>
+        <v>7.67</v>
       </c>
       <c r="F9" t="n">
-        <v>104300.9662</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>7.650666666666663</v>
+        <v>17.948717948718</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1399999999999997</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2599999999999989</v>
+        <v>7.59</v>
       </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
-        <v>7.721</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -843,51 +755,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7.45</v>
+        <v>7.55</v>
       </c>
       <c r="C10" t="n">
-        <v>7.44</v>
+        <v>7.55</v>
       </c>
       <c r="D10" t="n">
-        <v>7.45</v>
+        <v>7.55</v>
       </c>
       <c r="E10" t="n">
-        <v>7.44</v>
+        <v>7.55</v>
       </c>
       <c r="F10" t="n">
-        <v>122185.3246</v>
+        <v>2232.513</v>
       </c>
       <c r="G10" t="n">
-        <v>7.643333333333329</v>
+        <v>-24.4444444444445</v>
       </c>
       <c r="H10" t="n">
         <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.1499999999999995</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2699999999999987</v>
+        <v>7.67</v>
       </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="P10" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -896,49 +796,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7.44</v>
+        <v>7.63</v>
       </c>
       <c r="C11" t="n">
-        <v>7.43</v>
+        <v>7.63</v>
       </c>
       <c r="D11" t="n">
-        <v>7.44</v>
+        <v>7.63</v>
       </c>
       <c r="E11" t="n">
-        <v>7.43</v>
+        <v>7.63</v>
       </c>
       <c r="F11" t="n">
-        <v>69837.7594</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>7.635333333333329</v>
+        <v>28.20512820512831</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.1600000000000001</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2799999999999994</v>
+        <v>7.55</v>
       </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>7.503</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -947,55 +837,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7.42</v>
+        <v>7.55</v>
       </c>
       <c r="C12" t="n">
-        <v>7.4</v>
+        <v>7.52</v>
       </c>
       <c r="D12" t="n">
-        <v>7.42</v>
+        <v>7.55</v>
       </c>
       <c r="E12" t="n">
-        <v>7.4</v>
+        <v>7.52</v>
       </c>
       <c r="F12" t="n">
-        <v>191829.6274</v>
+        <v>31077.6259</v>
       </c>
       <c r="G12" t="n">
-        <v>7.626666666666662</v>
+        <v>2.040816326530568</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.1899999999999995</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3099999999999987</v>
-      </c>
-      <c r="K12" t="n">
-        <v>-57.14285714285718</v>
-      </c>
-      <c r="L12" t="n">
-        <v>7.484</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="P12" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1004,51 +878,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.48</v>
+        <v>7.61</v>
       </c>
       <c r="C13" t="n">
-        <v>7.48</v>
+        <v>7.61</v>
       </c>
       <c r="D13" t="n">
-        <v>7.48</v>
+        <v>7.61</v>
       </c>
       <c r="E13" t="n">
-        <v>7.48</v>
+        <v>7.61</v>
       </c>
       <c r="F13" t="n">
-        <v>32035.5614</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>7.619333333333328</v>
+        <v>19.2982456140351</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.1099999999999994</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3899999999999988</v>
-      </c>
-      <c r="K13" t="n">
-        <v>-22.22222222222209</v>
-      </c>
-      <c r="L13" t="n">
-        <v>7.476000000000001</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1057,108 +919,80 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7.47</v>
+        <v>7.59</v>
       </c>
       <c r="C14" t="n">
-        <v>7.46</v>
+        <v>7.59</v>
       </c>
       <c r="D14" t="n">
-        <v>7.47</v>
+        <v>7.59</v>
       </c>
       <c r="E14" t="n">
-        <v>7.46</v>
+        <v>7.59</v>
       </c>
       <c r="F14" t="n">
-        <v>43299.8884</v>
+        <v>104347.4125</v>
       </c>
       <c r="G14" t="n">
-        <v>7.611499999999994</v>
+        <v>15.25423728813553</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.1299999999999999</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0.4099999999999993</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-15.15151515151513</v>
-      </c>
-      <c r="L14" t="n">
-        <v>7.465999999999999</v>
+        <v>7.61</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="P14" t="n">
-        <v>7.741</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7.42</v>
+        <v>7.61</v>
       </c>
       <c r="C15" t="n">
-        <v>7.39</v>
+        <v>7.61</v>
       </c>
       <c r="D15" t="n">
-        <v>7.42</v>
+        <v>7.61</v>
       </c>
       <c r="E15" t="n">
-        <v>7.31</v>
+        <v>7.61</v>
       </c>
       <c r="F15" t="n">
-        <v>32024.1211</v>
+        <v>25.3628</v>
       </c>
       <c r="G15" t="n">
-        <v>7.602666666666661</v>
+        <v>18.03278688524589</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>0.4799999999999995</v>
+        <v>7.59</v>
       </c>
       <c r="K15" t="n">
-        <v>-48.5714285714286</v>
-      </c>
-      <c r="L15" t="n">
-        <v>7.453999999999999</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1167,53 +1001,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7.37</v>
+        <v>7.55</v>
       </c>
       <c r="C16" t="n">
-        <v>7.37</v>
+        <v>7.55</v>
       </c>
       <c r="D16" t="n">
-        <v>7.37</v>
+        <v>7.55</v>
       </c>
       <c r="E16" t="n">
-        <v>7.37</v>
+        <v>7.55</v>
       </c>
       <c r="F16" t="n">
-        <v>797.023</v>
+        <v>11239.0728</v>
       </c>
       <c r="G16" t="n">
-        <v>7.593499999999993</v>
+        <v>4.615384615384633</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.2199999999999998</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0.4999999999999991</v>
+        <v>7.61</v>
       </c>
       <c r="K16" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L16" t="n">
-        <v>7.435</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1222,57 +1040,41 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.39</v>
+        <v>7.55</v>
       </c>
       <c r="C17" t="n">
-        <v>7.39</v>
+        <v>7.55</v>
       </c>
       <c r="D17" t="n">
-        <v>7.39</v>
+        <v>7.55</v>
       </c>
       <c r="E17" t="n">
-        <v>7.39</v>
+        <v>7.55</v>
       </c>
       <c r="F17" t="n">
-        <v>11.6373</v>
+        <v>65996.2466</v>
       </c>
       <c r="G17" t="n">
-        <v>7.585999999999994</v>
+        <v>-6.896551724137905</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5199999999999987</v>
+        <v>7.55</v>
       </c>
       <c r="K17" t="n">
-        <v>-28.57142857142867</v>
-      </c>
-      <c r="L17" t="n">
-        <v>7.428</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q17" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S17" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1281,57 +1083,41 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7.37</v>
+        <v>7.61</v>
       </c>
       <c r="C18" t="n">
-        <v>7.37</v>
+        <v>7.61</v>
       </c>
       <c r="D18" t="n">
-        <v>7.37</v>
+        <v>7.61</v>
       </c>
       <c r="E18" t="n">
-        <v>7.37</v>
+        <v>7.61</v>
       </c>
       <c r="F18" t="n">
-        <v>141</v>
+        <v>97.8909</v>
       </c>
       <c r="G18" t="n">
-        <v>7.577166666666661</v>
+        <v>-10.71428571428558</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.2199999999999998</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>0.5399999999999983</v>
+        <v>7.55</v>
       </c>
       <c r="K18" t="n">
-        <v>-28.57142857142867</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7.418000000000001</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q18" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S18" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1340,55 +1126,41 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.37</v>
+        <v>7.61</v>
       </c>
       <c r="C19" t="n">
-        <v>7.32</v>
+        <v>7.76</v>
       </c>
       <c r="D19" t="n">
-        <v>7.37</v>
+        <v>7.76</v>
       </c>
       <c r="E19" t="n">
-        <v>7.32</v>
+        <v>7.61</v>
       </c>
       <c r="F19" t="n">
-        <v>129224.8381</v>
+        <v>7044.627</v>
       </c>
       <c r="G19" t="n">
-        <v>7.567166666666661</v>
+        <v>35.5932203389829</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.2699999999999996</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0.5899999999999981</v>
+        <v>7.61</v>
       </c>
       <c r="K19" t="n">
-        <v>-37.50000000000011</v>
-      </c>
-      <c r="L19" t="n">
-        <v>7.404999999999999</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="P19" t="n">
-        <v>7.648</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S19" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1397,55 +1169,41 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.32</v>
+        <v>7.58</v>
       </c>
       <c r="C20" t="n">
-        <v>7.31</v>
+        <v>7.58</v>
       </c>
       <c r="D20" t="n">
-        <v>7.32</v>
+        <v>7.58</v>
       </c>
       <c r="E20" t="n">
-        <v>7.31</v>
+        <v>7.58</v>
       </c>
       <c r="F20" t="n">
-        <v>5064.9009</v>
+        <v>491.3588</v>
       </c>
       <c r="G20" t="n">
-        <v>7.557333333333328</v>
+        <v>-7.246376811594154</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.2800000000000002</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.5999999999999988</v>
+        <v>7.76</v>
       </c>
       <c r="K20" t="n">
-        <v>-37.50000000000011</v>
-      </c>
-      <c r="L20" t="n">
-        <v>7.392</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="P20" t="n">
-        <v>7.576</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S20" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1454,55 +1212,41 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.32</v>
+        <v>7.55</v>
       </c>
       <c r="C21" t="n">
-        <v>7.32</v>
+        <v>7.55</v>
       </c>
       <c r="D21" t="n">
-        <v>7.32</v>
+        <v>7.55</v>
       </c>
       <c r="E21" t="n">
-        <v>7.32</v>
+        <v>7.55</v>
       </c>
       <c r="F21" t="n">
-        <v>1605</v>
+        <v>1295.2463</v>
       </c>
       <c r="G21" t="n">
-        <v>7.547666666666661</v>
+        <v>4.91803278688527</v>
       </c>
       <c r="H21" t="n">
         <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.2699999999999996</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.6099999999999994</v>
+        <v>7.58</v>
       </c>
       <c r="K21" t="n">
-        <v>-26.66666666666663</v>
-      </c>
-      <c r="L21" t="n">
-        <v>7.381</v>
+        <v>7.61</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M21" t="n">
-        <v>7.442</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1511,59 +1255,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.3</v>
+        <v>7.55</v>
       </c>
       <c r="C22" t="n">
-        <v>7.3</v>
+        <v>7.55</v>
       </c>
       <c r="D22" t="n">
-        <v>7.3</v>
+        <v>7.55</v>
       </c>
       <c r="E22" t="n">
-        <v>7.3</v>
+        <v>7.55</v>
       </c>
       <c r="F22" t="n">
-        <v>84227.76390000001</v>
+        <v>5400</v>
       </c>
       <c r="G22" t="n">
-        <v>7.538166666666661</v>
+        <v>-11.5384615384616</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.29</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.6299999999999999</v>
+        <v>7.55</v>
       </c>
       <c r="K22" t="n">
-        <v>-74.99999999999991</v>
-      </c>
-      <c r="L22" t="n">
-        <v>7.371</v>
+        <v>7.61</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M22" t="n">
-        <v>7.4275</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q22" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1572,60 +1298,42 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.44</v>
+        <v>7.54</v>
       </c>
       <c r="C23" t="n">
-        <v>7.44</v>
+        <v>7.54</v>
       </c>
       <c r="D23" t="n">
-        <v>7.44</v>
+        <v>7.54</v>
       </c>
       <c r="E23" t="n">
-        <v>7.44</v>
+        <v>7.54</v>
       </c>
       <c r="F23" t="n">
-        <v>60.4838</v>
+        <v>2927.769</v>
       </c>
       <c r="G23" t="n">
-        <v>7.530666666666662</v>
+        <v>-9.803921568627404</v>
       </c>
       <c r="H23" t="n">
         <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.1499999999999995</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0.7700000000000005</v>
+        <v>7.55</v>
       </c>
       <c r="K23" t="n">
-        <v>-5.555555555555419</v>
-      </c>
-      <c r="L23" t="n">
-        <v>7.366999999999999</v>
+        <v>7.61</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M23" t="n">
-        <v>7.4215</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q23" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>이탈 완료</t>
-        </is>
-      </c>
-      <c r="S23" t="n">
-        <v>0.9791269841269842</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1633,55 +1341,41 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.38</v>
+        <v>7.53</v>
       </c>
       <c r="C24" t="n">
-        <v>7.38</v>
+        <v>7.52</v>
       </c>
       <c r="D24" t="n">
-        <v>7.38</v>
+        <v>7.53</v>
       </c>
       <c r="E24" t="n">
-        <v>7.38</v>
+        <v>7.52</v>
       </c>
       <c r="F24" t="n">
-        <v>23.5975</v>
+        <v>8256.080400000001</v>
       </c>
       <c r="G24" t="n">
-        <v>7.523499999999995</v>
+        <v>-17.64705882352953</v>
       </c>
       <c r="H24" t="n">
         <v>1</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.21</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0.830000000000001</v>
+        <v>7.54</v>
       </c>
       <c r="K24" t="n">
-        <v>-2.857142857142784</v>
-      </c>
-      <c r="L24" t="n">
-        <v>7.358999999999999</v>
+        <v>7.61</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M24" t="n">
-        <v>7.4125</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q24" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1690,55 +1384,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.38</v>
+        <v>7.65</v>
       </c>
       <c r="C25" t="n">
-        <v>7.38</v>
+        <v>7.65</v>
       </c>
       <c r="D25" t="n">
-        <v>7.38</v>
+        <v>7.65</v>
       </c>
       <c r="E25" t="n">
-        <v>7.38</v>
+        <v>7.65</v>
       </c>
       <c r="F25" t="n">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>7.516499999999994</v>
+        <v>17.24137931034489</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.21</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.830000000000001</v>
+        <v>7.52</v>
       </c>
       <c r="K25" t="n">
-        <v>3.030303030302949</v>
-      </c>
-      <c r="L25" t="n">
-        <v>7.357999999999999</v>
+        <v>7.61</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M25" t="n">
-        <v>7.406000000000001</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q25" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1747,55 +1427,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.31</v>
+        <v>7.53</v>
       </c>
       <c r="C26" t="n">
-        <v>7.31</v>
+        <v>7.5</v>
       </c>
       <c r="D26" t="n">
-        <v>7.31</v>
+        <v>7.53</v>
       </c>
       <c r="E26" t="n">
-        <v>7.31</v>
+        <v>7.5</v>
       </c>
       <c r="F26" t="n">
-        <v>9402.550999999999</v>
+        <v>111402.0395</v>
       </c>
       <c r="G26" t="n">
-        <v>7.51166666666666</v>
+        <v>-6.849315068493114</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.2800000000000002</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9000000000000012</v>
+        <v>7.65</v>
       </c>
       <c r="K26" t="n">
-        <v>-21.05263157894725</v>
-      </c>
-      <c r="L26" t="n">
-        <v>7.351999999999999</v>
+        <v>7.61</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M26" t="n">
-        <v>7.3935</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q26" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1804,55 +1470,41 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7.31</v>
+        <v>7.5</v>
       </c>
       <c r="C27" t="n">
-        <v>7.31</v>
+        <v>7.48</v>
       </c>
       <c r="D27" t="n">
-        <v>7.31</v>
+        <v>7.5</v>
       </c>
       <c r="E27" t="n">
-        <v>7.31</v>
+        <v>7.48</v>
       </c>
       <c r="F27" t="n">
-        <v>3150</v>
+        <v>472038.8253</v>
       </c>
       <c r="G27" t="n">
-        <v>7.503166666666661</v>
+        <v>-18.8405797101449</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.2800000000000002</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9000000000000012</v>
+        <v>7.5</v>
       </c>
       <c r="K27" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L27" t="n">
-        <v>7.343999999999999</v>
+        <v>7.61</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M27" t="n">
-        <v>7.386</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q27" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1861,55 +1513,41 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.32</v>
+        <v>7.48</v>
       </c>
       <c r="C28" t="n">
-        <v>7.32</v>
+        <v>7.45</v>
       </c>
       <c r="D28" t="n">
-        <v>7.32</v>
+        <v>7.48</v>
       </c>
       <c r="E28" t="n">
-        <v>7.32</v>
+        <v>7.45</v>
       </c>
       <c r="F28" t="n">
-        <v>148.6928</v>
+        <v>108189.6272</v>
       </c>
       <c r="G28" t="n">
-        <v>7.495999999999994</v>
+        <v>-54.38596491228053</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.2699999999999996</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9100000000000019</v>
+        <v>7.48</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>7.338999999999999</v>
+        <v>7.61</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M28" t="n">
-        <v>7.3785</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q28" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,53 +1556,41 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.31</v>
+        <v>7.46</v>
       </c>
       <c r="C29" t="n">
-        <v>7.3</v>
+        <v>7.46</v>
       </c>
       <c r="D29" t="n">
-        <v>7.31</v>
+        <v>7.46</v>
       </c>
       <c r="E29" t="n">
-        <v>7.3</v>
+        <v>7.46</v>
       </c>
       <c r="F29" t="n">
-        <v>181971.4498</v>
+        <v>8478.5054</v>
       </c>
       <c r="G29" t="n">
-        <v>7.490833333333327</v>
+        <v>-29.99999999999993</v>
       </c>
       <c r="H29" t="n">
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.29</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9300000000000024</v>
+        <v>7.45</v>
       </c>
       <c r="K29" t="n">
-        <v>-3.030303030302933</v>
-      </c>
-      <c r="L29" t="n">
-        <v>7.336999999999998</v>
+        <v>7.61</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M29" t="n">
-        <v>7.371</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="P29" t="n">
-        <v>7.565</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1973,56 +1599,42 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.31</v>
+        <v>7.45</v>
       </c>
       <c r="C30" t="n">
-        <v>7.31</v>
+        <v>7.45</v>
       </c>
       <c r="D30" t="n">
-        <v>7.31</v>
+        <v>7.45</v>
       </c>
       <c r="E30" t="n">
-        <v>7.31</v>
+        <v>7.45</v>
       </c>
       <c r="F30" t="n">
-        <v>10433.277</v>
+        <v>498.375</v>
       </c>
       <c r="G30" t="n">
-        <v>7.485999999999994</v>
+        <v>-26.31578947368406</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.2800000000000002</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9400000000000022</v>
+        <v>7.46</v>
       </c>
       <c r="K30" t="n">
-        <v>-3.03030303030321</v>
-      </c>
-      <c r="L30" t="n">
-        <v>7.336999999999998</v>
+        <v>7.61</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M30" t="n">
-        <v>7.364500000000001</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S30" t="n">
-        <v>1</v>
+        <v>0.9739750328515111</v>
       </c>
     </row>
     <row r="31">
@@ -2030,61 +1642,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7.3</v>
+        <v>7.59</v>
       </c>
       <c r="C31" t="n">
-        <v>7.3</v>
+        <v>7.59</v>
       </c>
       <c r="D31" t="n">
-        <v>7.3</v>
+        <v>7.59</v>
       </c>
       <c r="E31" t="n">
-        <v>7.3</v>
+        <v>7.59</v>
       </c>
       <c r="F31" t="n">
-        <v>115334.5186</v>
+        <v>546.5743</v>
       </c>
       <c r="G31" t="n">
-        <v>7.479999999999993</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H31" t="n">
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.29</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>0.950000000000002</v>
+        <v>7.45</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>7.334999999999996</v>
+        <v>7.45</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M31" t="n">
-        <v>7.358000000000001</v>
-      </c>
-      <c r="N31" t="n">
-        <v>7.406333333333334</v>
-      </c>
-      <c r="O31" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q31" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,61 +1685,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.3</v>
+        <v>7.59</v>
       </c>
       <c r="C32" t="n">
-        <v>7.3</v>
+        <v>7.59</v>
       </c>
       <c r="D32" t="n">
-        <v>7.3</v>
+        <v>7.59</v>
       </c>
       <c r="E32" t="n">
-        <v>7.3</v>
+        <v>7.59</v>
       </c>
       <c r="F32" t="n">
-        <v>1730</v>
+        <v>132.1343</v>
       </c>
       <c r="G32" t="n">
-        <v>7.476333333333328</v>
+        <v>9.803921568627404</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>-0.29</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.950000000000002</v>
+        <v>7.59</v>
       </c>
       <c r="K32" t="n">
-        <v>-77.77777777777744</v>
-      </c>
-      <c r="L32" t="n">
-        <v>7.334999999999996</v>
-      </c>
+        <v>7.59</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>7.353000000000002</v>
-      </c>
-      <c r="N32" t="n">
-        <v>7.396666666666667</v>
-      </c>
-      <c r="O32" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q32" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2156,61 +1724,41 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7.35</v>
+        <v>7.56</v>
       </c>
       <c r="C33" t="n">
-        <v>7.35</v>
+        <v>7.56</v>
       </c>
       <c r="D33" t="n">
-        <v>7.35</v>
+        <v>7.56</v>
       </c>
       <c r="E33" t="n">
-        <v>7.35</v>
+        <v>7.56</v>
       </c>
       <c r="F33" t="n">
-        <v>9836.065000000001</v>
+        <v>73690.016</v>
       </c>
       <c r="G33" t="n">
-        <v>7.473666666666661</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>-0.2400000000000002</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1.000000000000002</v>
+        <v>7.59</v>
       </c>
       <c r="K33" t="n">
-        <v>-17.64705882352947</v>
-      </c>
-      <c r="L33" t="n">
-        <v>7.325999999999996</v>
+        <v>7.59</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M33" t="n">
-        <v>7.346500000000002</v>
-      </c>
-      <c r="N33" t="n">
-        <v>7.389666666666668</v>
-      </c>
-      <c r="O33" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q33" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2219,61 +1767,41 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.34</v>
+        <v>7.56</v>
       </c>
       <c r="C34" t="n">
-        <v>7.34</v>
+        <v>7.56</v>
       </c>
       <c r="D34" t="n">
-        <v>7.34</v>
+        <v>7.56</v>
       </c>
       <c r="E34" t="n">
-        <v>7.34</v>
+        <v>7.56</v>
       </c>
       <c r="F34" t="n">
-        <v>27080</v>
+        <v>33590.275</v>
       </c>
       <c r="G34" t="n">
-        <v>7.470999999999994</v>
+        <v>-23.07692307692329</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1.010000000000002</v>
+        <v>7.56</v>
       </c>
       <c r="K34" t="n">
-        <v>-22.22222222222217</v>
-      </c>
-      <c r="L34" t="n">
-        <v>7.321999999999997</v>
+        <v>7.59</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M34" t="n">
-        <v>7.340500000000001</v>
-      </c>
-      <c r="N34" t="n">
-        <v>7.382333333333334</v>
-      </c>
-      <c r="O34" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q34" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2282,61 +1810,41 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7.37</v>
+        <v>7.5</v>
       </c>
       <c r="C35" t="n">
-        <v>7.38</v>
+        <v>7.51</v>
       </c>
       <c r="D35" t="n">
-        <v>7.38</v>
+        <v>7.51</v>
       </c>
       <c r="E35" t="n">
-        <v>7.37</v>
+        <v>7.5</v>
       </c>
       <c r="F35" t="n">
-        <v>52350.9346</v>
+        <v>36679.2896</v>
       </c>
       <c r="G35" t="n">
-        <v>7.468999999999994</v>
+        <v>3.448275862068902</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>-0.21</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.050000000000002</v>
+        <v>7.56</v>
       </c>
       <c r="K35" t="n">
-        <v>46.66666666666674</v>
-      </c>
-      <c r="L35" t="n">
-        <v>7.321999999999997</v>
+        <v>7.59</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M35" t="n">
-        <v>7.340000000000002</v>
-      </c>
-      <c r="N35" t="n">
-        <v>7.378000000000001</v>
-      </c>
-      <c r="O35" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q35" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2345,61 +1853,41 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7.41</v>
+        <v>7.56</v>
       </c>
       <c r="C36" t="n">
-        <v>7.43</v>
+        <v>7.56</v>
       </c>
       <c r="D36" t="n">
-        <v>7.43</v>
+        <v>7.56</v>
       </c>
       <c r="E36" t="n">
-        <v>7.41</v>
+        <v>7.56</v>
       </c>
       <c r="F36" t="n">
-        <v>169113.6287</v>
+        <v>50</v>
       </c>
       <c r="G36" t="n">
-        <v>7.467833333333328</v>
+        <v>24.99999999999979</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.1600000000000001</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.100000000000001</v>
+        <v>7.51</v>
       </c>
       <c r="K36" t="n">
-        <v>60</v>
-      </c>
-      <c r="L36" t="n">
-        <v>7.333999999999998</v>
+        <v>7.59</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M36" t="n">
-        <v>7.343000000000002</v>
-      </c>
-      <c r="N36" t="n">
-        <v>7.373666666666668</v>
-      </c>
-      <c r="O36" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,62 +1896,42 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="C37" t="n">
         <v>7.46</v>
       </c>
-      <c r="C37" t="n">
-        <v>7.61</v>
-      </c>
       <c r="D37" t="n">
-        <v>7.61</v>
+        <v>7.47</v>
       </c>
       <c r="E37" t="n">
         <v>7.46</v>
       </c>
       <c r="F37" t="n">
-        <v>1000</v>
+        <v>31374.619</v>
       </c>
       <c r="G37" t="n">
-        <v>7.469333333333328</v>
+        <v>2.564102564102518</v>
       </c>
       <c r="H37" t="n">
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02000000000000046</v>
+        <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>1.280000000000002</v>
+        <v>7.56</v>
       </c>
       <c r="K37" t="n">
-        <v>78.37837837837837</v>
-      </c>
-      <c r="L37" t="n">
-        <v>7.363999999999997</v>
+        <v>7.59</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M37" t="n">
-        <v>7.354000000000004</v>
-      </c>
-      <c r="N37" t="n">
-        <v>7.378666666666668</v>
-      </c>
-      <c r="O37" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q37" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>지정 매도</t>
-        </is>
-      </c>
-      <c r="S37" t="n">
-        <v>1.029883720930233</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -2471,57 +1939,41 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.55</v>
+        <v>7.47</v>
       </c>
       <c r="C38" t="n">
-        <v>7.61</v>
+        <v>7.47</v>
       </c>
       <c r="D38" t="n">
-        <v>7.61</v>
+        <v>7.47</v>
       </c>
       <c r="E38" t="n">
-        <v>7.55</v>
+        <v>7.47</v>
       </c>
       <c r="F38" t="n">
-        <v>39411.4569</v>
+        <v>21581.638</v>
       </c>
       <c r="G38" t="n">
-        <v>7.469666666666662</v>
+        <v>2.564102564102518</v>
       </c>
       <c r="H38" t="n">
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0.02000000000000046</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1.280000000000002</v>
+        <v>7.46</v>
       </c>
       <c r="K38" t="n">
-        <v>88.5714285714288</v>
-      </c>
-      <c r="L38" t="n">
-        <v>7.392999999999998</v>
+        <v>7.59</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M38" t="n">
-        <v>7.366000000000004</v>
-      </c>
-      <c r="N38" t="n">
-        <v>7.383333333333336</v>
-      </c>
-      <c r="O38" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q38" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2530,57 +1982,41 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="C39" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="D39" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="E39" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="F39" t="n">
+        <v>104300.9662</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
         <v>7.47</v>
       </c>
-      <c r="C39" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D39" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="E39" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="F39" t="n">
-        <v>65000</v>
-      </c>
-      <c r="G39" t="n">
-        <v>7.466333333333329</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>-0.1200000000000001</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.420000000000003</v>
-      </c>
       <c r="K39" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L39" t="n">
-        <v>7.409999999999998</v>
+        <v>7.59</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M39" t="n">
-        <v>7.373500000000004</v>
-      </c>
-      <c r="N39" t="n">
-        <v>7.384000000000002</v>
-      </c>
-      <c r="O39" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q39" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2589,53 +2025,41 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.61</v>
+        <v>7.45</v>
       </c>
       <c r="C40" t="n">
-        <v>7.61</v>
+        <v>7.44</v>
       </c>
       <c r="D40" t="n">
-        <v>7.61</v>
+        <v>7.45</v>
       </c>
       <c r="E40" t="n">
-        <v>7.61</v>
+        <v>7.44</v>
       </c>
       <c r="F40" t="n">
-        <v>11.5344</v>
+        <v>122185.3246</v>
       </c>
       <c r="G40" t="n">
-        <v>7.467333333333329</v>
+        <v>-55.55555555555581</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0.02000000000000046</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.560000000000003</v>
+        <v>7.45</v>
       </c>
       <c r="K40" t="n">
-        <v>50.81967213114752</v>
-      </c>
-      <c r="L40" t="n">
-        <v>7.439999999999998</v>
+        <v>7.59</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M40" t="n">
-        <v>7.388500000000005</v>
-      </c>
-      <c r="N40" t="n">
-        <v>7.389666666666669</v>
-      </c>
-      <c r="O40" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2644,55 +2068,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>7.47</v>
+        <v>7.44</v>
       </c>
       <c r="C41" t="n">
-        <v>7.45</v>
+        <v>7.43</v>
       </c>
       <c r="D41" t="n">
-        <v>7.47</v>
+        <v>7.44</v>
       </c>
       <c r="E41" t="n">
-        <v>7.45</v>
+        <v>7.43</v>
       </c>
       <c r="F41" t="n">
-        <v>169113.6287</v>
+        <v>69837.7594</v>
       </c>
       <c r="G41" t="n">
-        <v>7.464333333333329</v>
+        <v>-57.14285714285733</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.1399999999999997</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>1.720000000000003</v>
+        <v>7.44</v>
       </c>
       <c r="K41" t="n">
-        <v>19.48051948051949</v>
-      </c>
-      <c r="L41" t="n">
-        <v>7.454999999999998</v>
+        <v>7.59</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M41" t="n">
-        <v>7.395000000000005</v>
-      </c>
-      <c r="N41" t="n">
-        <v>7.390333333333335</v>
-      </c>
-      <c r="O41" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="P41" t="n">
-        <v>7.731</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2701,57 +2111,41 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.44</v>
+        <v>7.42</v>
       </c>
       <c r="C42" t="n">
-        <v>7.44</v>
+        <v>7.4</v>
       </c>
       <c r="D42" t="n">
-        <v>7.44</v>
+        <v>7.42</v>
       </c>
       <c r="E42" t="n">
-        <v>7.44</v>
+        <v>7.4</v>
       </c>
       <c r="F42" t="n">
-        <v>1344.086</v>
+        <v>191829.6274</v>
       </c>
       <c r="G42" t="n">
-        <v>7.462999999999996</v>
+        <v>-57.14285714285718</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>-0.1499999999999995</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.730000000000003</v>
+        <v>7.43</v>
       </c>
       <c r="K42" t="n">
-        <v>12.32876712328775</v>
-      </c>
-      <c r="L42" t="n">
-        <v>7.468999999999999</v>
+        <v>7.59</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M42" t="n">
-        <v>7.402000000000004</v>
-      </c>
-      <c r="N42" t="n">
-        <v>7.391666666666668</v>
-      </c>
-      <c r="O42" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2760,61 +2154,41 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.39</v>
+        <v>7.48</v>
       </c>
       <c r="C43" t="n">
-        <v>7.39</v>
+        <v>7.48</v>
       </c>
       <c r="D43" t="n">
-        <v>7.39</v>
+        <v>7.48</v>
       </c>
       <c r="E43" t="n">
-        <v>7.39</v>
+        <v>7.48</v>
       </c>
       <c r="F43" t="n">
-        <v>9664.429</v>
+        <v>32035.5614</v>
       </c>
       <c r="G43" t="n">
-        <v>7.459333333333329</v>
+        <v>-22.22222222222209</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>-0.2000000000000002</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.780000000000004</v>
+        <v>7.4</v>
       </c>
       <c r="K43" t="n">
-        <v>6.493506493506452</v>
-      </c>
-      <c r="L43" t="n">
-        <v>7.472999999999999</v>
+        <v>7.59</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M43" t="n">
-        <v>7.399500000000003</v>
-      </c>
-      <c r="N43" t="n">
-        <v>7.388666666666668</v>
-      </c>
-      <c r="O43" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q43" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2823,59 +2197,41 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.4</v>
+        <v>7.47</v>
       </c>
       <c r="C44" t="n">
-        <v>7.4</v>
+        <v>7.46</v>
       </c>
       <c r="D44" t="n">
-        <v>7.4</v>
+        <v>7.47</v>
       </c>
       <c r="E44" t="n">
-        <v>7.4</v>
+        <v>7.46</v>
       </c>
       <c r="F44" t="n">
-        <v>3740.7967</v>
+        <v>43299.8884</v>
       </c>
       <c r="G44" t="n">
-        <v>7.456166666666662</v>
+        <v>-15.15151515151518</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.1899999999999995</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1.790000000000004</v>
+        <v>7.48</v>
       </c>
       <c r="K44" t="n">
-        <v>2.702702702702755</v>
-      </c>
-      <c r="L44" t="n">
-        <v>7.478999999999999</v>
+        <v>7.59</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M44" t="n">
-        <v>7.400500000000004</v>
-      </c>
-      <c r="N44" t="n">
-        <v>7.386666666666668</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q44" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2887,56 +2243,38 @@
         <v>7.42</v>
       </c>
       <c r="C45" t="n">
-        <v>7.42</v>
+        <v>7.39</v>
       </c>
       <c r="D45" t="n">
         <v>7.42</v>
       </c>
       <c r="E45" t="n">
-        <v>7.42</v>
+        <v>7.31</v>
       </c>
       <c r="F45" t="n">
-        <v>33.4231</v>
+        <v>32024.1211</v>
       </c>
       <c r="G45" t="n">
-        <v>7.452999999999995</v>
+        <v>-48.57142857142873</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.1699999999999999</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1.810000000000004</v>
+        <v>7.46</v>
       </c>
       <c r="K45" t="n">
-        <v>-1.408450704225317</v>
-      </c>
-      <c r="L45" t="n">
-        <v>7.483</v>
+        <v>7.59</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M45" t="n">
-        <v>7.402500000000003</v>
-      </c>
-      <c r="N45" t="n">
-        <v>7.387666666666669</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q45" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2945,60 +2283,42 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.42</v>
+        <v>7.37</v>
       </c>
       <c r="C46" t="n">
-        <v>7.42</v>
+        <v>7.37</v>
       </c>
       <c r="D46" t="n">
-        <v>7.42</v>
+        <v>7.37</v>
       </c>
       <c r="E46" t="n">
-        <v>7.42</v>
+        <v>7.37</v>
       </c>
       <c r="F46" t="n">
-        <v>54711.0264</v>
+        <v>797.023</v>
       </c>
       <c r="G46" t="n">
-        <v>7.450833333333329</v>
+        <v>-33.33333333333344</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>-0.1699999999999999</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.810000000000004</v>
+        <v>7.39</v>
       </c>
       <c r="K46" t="n">
-        <v>-35.84905660377352</v>
-      </c>
-      <c r="L46" t="n">
-        <v>7.481999999999999</v>
+        <v>7.59</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M46" t="n">
-        <v>7.408000000000003</v>
-      </c>
-      <c r="N46" t="n">
-        <v>7.389333333333335</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>capturing..</t>
-        </is>
-      </c>
-      <c r="Q46" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S46" t="n">
-        <v>1</v>
+        <v>0.9660144927536232</v>
       </c>
     </row>
     <row r="47">
@@ -3006,57 +2326,41 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7.46</v>
+        <v>7.39</v>
       </c>
       <c r="C47" t="n">
-        <v>7.4</v>
+        <v>7.39</v>
       </c>
       <c r="D47" t="n">
-        <v>7.46</v>
+        <v>7.39</v>
       </c>
       <c r="E47" t="n">
-        <v>7.4</v>
+        <v>7.39</v>
       </c>
       <c r="F47" t="n">
-        <v>54811.026</v>
+        <v>11.6373</v>
       </c>
       <c r="G47" t="n">
-        <v>7.448333333333328</v>
+        <v>-28.57142857142875</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.1899999999999995</v>
+        <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.830000000000004</v>
+        <v>7.37</v>
       </c>
       <c r="K47" t="n">
-        <v>-38.18181818181807</v>
-      </c>
-      <c r="L47" t="n">
-        <v>7.461</v>
+        <v>7.39</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M47" t="n">
-        <v>7.412500000000003</v>
-      </c>
-      <c r="N47" t="n">
-        <v>7.389666666666669</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="n">
-        <v>7.71</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3065,55 +2369,41 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.46</v>
+        <v>7.37</v>
       </c>
       <c r="C48" t="n">
-        <v>7.5</v>
+        <v>7.37</v>
       </c>
       <c r="D48" t="n">
-        <v>7.5</v>
+        <v>7.37</v>
       </c>
       <c r="E48" t="n">
-        <v>7.46</v>
+        <v>7.37</v>
       </c>
       <c r="F48" t="n">
-        <v>52672.443</v>
+        <v>141</v>
       </c>
       <c r="G48" t="n">
-        <v>7.446499999999995</v>
+        <v>-28.57142857142875</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>-0.08999999999999986</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>1.930000000000003</v>
+        <v>7.39</v>
       </c>
       <c r="K48" t="n">
-        <v>5.882352941176512</v>
-      </c>
-      <c r="L48" t="n">
-        <v>7.45</v>
+        <v>7.39</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M48" t="n">
-        <v>7.421500000000004</v>
-      </c>
-      <c r="N48" t="n">
-        <v>7.394000000000002</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3122,55 +2412,41 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.43</v>
+        <v>7.37</v>
       </c>
       <c r="C49" t="n">
-        <v>7.43</v>
+        <v>7.32</v>
       </c>
       <c r="D49" t="n">
-        <v>7.43</v>
+        <v>7.37</v>
       </c>
       <c r="E49" t="n">
-        <v>7.43</v>
+        <v>7.32</v>
       </c>
       <c r="F49" t="n">
-        <v>50</v>
+        <v>129224.8381</v>
       </c>
       <c r="G49" t="n">
-        <v>7.440999999999995</v>
+        <v>-37.5</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.1600000000000001</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.000000000000004</v>
+        <v>7.37</v>
       </c>
       <c r="K49" t="n">
-        <v>-40.90909090909101</v>
-      </c>
-      <c r="L49" t="n">
-        <v>7.446000000000001</v>
+        <v>7.39</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M49" t="n">
-        <v>7.428000000000003</v>
-      </c>
-      <c r="N49" t="n">
-        <v>7.397666666666669</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3179,55 +2455,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.45</v>
+        <v>7.32</v>
       </c>
       <c r="C50" t="n">
-        <v>7.59</v>
+        <v>7.31</v>
       </c>
       <c r="D50" t="n">
-        <v>7.59</v>
+        <v>7.32</v>
       </c>
       <c r="E50" t="n">
-        <v>7.45</v>
+        <v>7.31</v>
       </c>
       <c r="F50" t="n">
-        <v>44.4161</v>
+        <v>5064.9009</v>
       </c>
       <c r="G50" t="n">
-        <v>7.441166666666661</v>
+        <v>-37.5</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.160000000000004</v>
+        <v>7.32</v>
       </c>
       <c r="K50" t="n">
-        <v>31.81818181818172</v>
-      </c>
-      <c r="L50" t="n">
-        <v>7.444000000000001</v>
+        <v>7.39</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M50" t="n">
-        <v>7.442000000000003</v>
-      </c>
-      <c r="N50" t="n">
-        <v>7.407000000000002</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3236,55 +2498,41 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.58</v>
+        <v>7.32</v>
       </c>
       <c r="C51" t="n">
-        <v>7.58</v>
+        <v>7.32</v>
       </c>
       <c r="D51" t="n">
-        <v>7.58</v>
+        <v>7.32</v>
       </c>
       <c r="E51" t="n">
-        <v>7.58</v>
+        <v>7.32</v>
       </c>
       <c r="F51" t="n">
-        <v>40077.8364</v>
+        <v>1605</v>
       </c>
       <c r="G51" t="n">
-        <v>7.441666666666661</v>
+        <v>-26.66666666666647</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>-0.009999999999999787</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
-        <v>2.170000000000003</v>
+        <v>7.31</v>
       </c>
       <c r="K51" t="n">
-        <v>31.81818181818172</v>
-      </c>
-      <c r="L51" t="n">
-        <v>7.457000000000001</v>
+        <v>7.39</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M51" t="n">
-        <v>7.456000000000003</v>
-      </c>
-      <c r="N51" t="n">
-        <v>7.415666666666669</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3293,55 +2541,41 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.57</v>
+        <v>7.3</v>
       </c>
       <c r="C52" t="n">
-        <v>7.57</v>
+        <v>7.3</v>
       </c>
       <c r="D52" t="n">
-        <v>7.57</v>
+        <v>7.3</v>
       </c>
       <c r="E52" t="n">
-        <v>7.57</v>
+        <v>7.3</v>
       </c>
       <c r="F52" t="n">
-        <v>40640</v>
+        <v>84227.76390000001</v>
       </c>
       <c r="G52" t="n">
-        <v>7.441999999999994</v>
+        <v>-74.99999999999963</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.01999999999999957</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2.180000000000003</v>
+        <v>7.32</v>
       </c>
       <c r="K52" t="n">
-        <v>45.00000000000021</v>
-      </c>
-      <c r="L52" t="n">
-        <v>7.470000000000002</v>
+        <v>7.39</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M52" t="n">
-        <v>7.469500000000002</v>
-      </c>
-      <c r="N52" t="n">
-        <v>7.424666666666669</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3350,55 +2584,41 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.57</v>
+        <v>7.44</v>
       </c>
       <c r="C53" t="n">
-        <v>7.57</v>
+        <v>7.44</v>
       </c>
       <c r="D53" t="n">
-        <v>7.57</v>
+        <v>7.44</v>
       </c>
       <c r="E53" t="n">
-        <v>7.57</v>
+        <v>7.44</v>
       </c>
       <c r="F53" t="n">
-        <v>39312.9283</v>
+        <v>60.4838</v>
       </c>
       <c r="G53" t="n">
-        <v>7.442499999999994</v>
+        <v>-5.555555555555391</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>-0.01999999999999957</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.180000000000003</v>
+        <v>7.3</v>
       </c>
       <c r="K53" t="n">
-        <v>43.5897435897437</v>
-      </c>
-      <c r="L53" t="n">
-        <v>7.488000000000001</v>
+        <v>7.39</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M53" t="n">
-        <v>7.480500000000002</v>
-      </c>
-      <c r="N53" t="n">
-        <v>7.429000000000002</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3407,55 +2627,41 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.57</v>
+        <v>7.38</v>
       </c>
       <c r="C54" t="n">
-        <v>7.57</v>
+        <v>7.38</v>
       </c>
       <c r="D54" t="n">
-        <v>7.57</v>
+        <v>7.38</v>
       </c>
       <c r="E54" t="n">
-        <v>7.57</v>
+        <v>7.38</v>
       </c>
       <c r="F54" t="n">
-        <v>2609.8193</v>
+        <v>23.5975</v>
       </c>
       <c r="G54" t="n">
-        <v>7.443333333333327</v>
+        <v>-2.85714285714277</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.01999999999999957</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.180000000000003</v>
+        <v>7.44</v>
       </c>
       <c r="K54" t="n">
-        <v>40.54054054054072</v>
-      </c>
-      <c r="L54" t="n">
-        <v>7.505000000000001</v>
+        <v>7.39</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M54" t="n">
-        <v>7.492000000000002</v>
-      </c>
-      <c r="N54" t="n">
-        <v>7.435333333333335</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3464,55 +2670,41 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.59</v>
+        <v>7.38</v>
       </c>
       <c r="C55" t="n">
-        <v>7.59</v>
+        <v>7.38</v>
       </c>
       <c r="D55" t="n">
-        <v>7.59</v>
+        <v>7.38</v>
       </c>
       <c r="E55" t="n">
-        <v>7.59</v>
+        <v>7.38</v>
       </c>
       <c r="F55" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="G55" t="n">
-        <v>7.442333333333327</v>
+        <v>3.030303030302933</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2.200000000000003</v>
+        <v>7.38</v>
       </c>
       <c r="K55" t="n">
-        <v>43.5897435897437</v>
-      </c>
-      <c r="L55" t="n">
-        <v>7.522000000000001</v>
+        <v>7.39</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M55" t="n">
-        <v>7.502500000000002</v>
-      </c>
-      <c r="N55" t="n">
-        <v>7.442333333333336</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3521,55 +2713,41 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7.43</v>
+        <v>7.31</v>
       </c>
       <c r="C56" t="n">
-        <v>7.43</v>
+        <v>7.31</v>
       </c>
       <c r="D56" t="n">
-        <v>7.43</v>
+        <v>7.31</v>
       </c>
       <c r="E56" t="n">
-        <v>7.43</v>
+        <v>7.31</v>
       </c>
       <c r="F56" t="n">
-        <v>73</v>
+        <v>9402.550999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>7.44116666666666</v>
+        <v>-21.05263157894715</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>-0.1600000000000001</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.360000000000003</v>
+        <v>7.38</v>
       </c>
       <c r="K56" t="n">
-        <v>5.660377358490452</v>
-      </c>
-      <c r="L56" t="n">
-        <v>7.523000000000001</v>
+        <v>7.39</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M56" t="n">
-        <v>7.502500000000002</v>
-      </c>
-      <c r="N56" t="n">
-        <v>7.446333333333336</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3578,55 +2756,41 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7.51</v>
+        <v>7.31</v>
       </c>
       <c r="C57" t="n">
-        <v>7.5</v>
+        <v>7.31</v>
       </c>
       <c r="D57" t="n">
-        <v>7.51</v>
+        <v>7.31</v>
       </c>
       <c r="E57" t="n">
-        <v>7.5</v>
+        <v>7.31</v>
       </c>
       <c r="F57" t="n">
-        <v>81715.4653</v>
+        <v>3150</v>
       </c>
       <c r="G57" t="n">
-        <v>7.441499999999993</v>
+        <v>-16.66666666666659</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>-0.08999999999999986</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
-        <v>2.430000000000003</v>
+        <v>7.31</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
-      </c>
-      <c r="L57" t="n">
-        <v>7.532999999999999</v>
+        <v>7.39</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M57" t="n">
-        <v>7.497000000000002</v>
-      </c>
-      <c r="N57" t="n">
-        <v>7.452666666666669</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3635,55 +2799,41 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>7.49</v>
+        <v>7.32</v>
       </c>
       <c r="C58" t="n">
-        <v>7.49</v>
+        <v>7.32</v>
       </c>
       <c r="D58" t="n">
-        <v>7.49</v>
+        <v>7.32</v>
       </c>
       <c r="E58" t="n">
-        <v>7.49</v>
+        <v>7.32</v>
       </c>
       <c r="F58" t="n">
-        <v>2992.5</v>
+        <v>148.6928</v>
       </c>
       <c r="G58" t="n">
-        <v>7.442166666666661</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>-0.09999999999999964</v>
+        <v>1</v>
       </c>
       <c r="J58" t="n">
-        <v>2.440000000000003</v>
+        <v>7.31</v>
       </c>
       <c r="K58" t="n">
-        <v>13.63636363636377</v>
-      </c>
-      <c r="L58" t="n">
-        <v>7.531999999999999</v>
+        <v>7.39</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M58" t="n">
-        <v>7.491000000000001</v>
-      </c>
-      <c r="N58" t="n">
-        <v>7.458333333333337</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>waiting..</t>
-        </is>
-      </c>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3692,56 +2842,42 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>7.49</v>
+        <v>7.31</v>
       </c>
       <c r="C59" t="n">
-        <v>7.48</v>
+        <v>7.3</v>
       </c>
       <c r="D59" t="n">
-        <v>7.49</v>
+        <v>7.31</v>
       </c>
       <c r="E59" t="n">
-        <v>7.48</v>
+        <v>7.3</v>
       </c>
       <c r="F59" t="n">
-        <v>91642.9648</v>
+        <v>181971.4498</v>
       </c>
       <c r="G59" t="n">
-        <v>7.442499999999995</v>
+        <v>-3.030303030302949</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.1099999999999994</v>
+        <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>2.450000000000003</v>
+        <v>7.32</v>
       </c>
       <c r="K59" t="n">
-        <v>-37.93103448275853</v>
-      </c>
-      <c r="L59" t="n">
-        <v>7.537000000000001</v>
+        <v>7.39</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M59" t="n">
-        <v>7.4915</v>
-      </c>
-      <c r="N59" t="n">
-        <v>7.464333333333335</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>이탈 완료</t>
-        </is>
-      </c>
-      <c r="S59" t="n">
-        <v>0.996338688085676</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3749,50 +2885,42 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7.47</v>
+        <v>7.31</v>
       </c>
       <c r="C60" t="n">
-        <v>7.47</v>
+        <v>7.31</v>
       </c>
       <c r="D60" t="n">
-        <v>7.47</v>
+        <v>7.31</v>
       </c>
       <c r="E60" t="n">
-        <v>7.47</v>
+        <v>7.31</v>
       </c>
       <c r="F60" t="n">
-        <v>2468.540829986613</v>
+        <v>10433.277</v>
       </c>
       <c r="G60" t="n">
-        <v>7.442833333333328</v>
+        <v>-3.030303030303234</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>-0.1200000000000001</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.460000000000004</v>
+        <v>7.3</v>
       </c>
       <c r="K60" t="n">
-        <v>-37.93103448275873</v>
-      </c>
-      <c r="L60" t="n">
-        <v>7.525</v>
+        <v>7.39</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M60" t="n">
-        <v>7.4845</v>
-      </c>
-      <c r="N60" t="n">
-        <v>7.469666666666669</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
-        <v>1</v>
+        <v>0.9841745602165087</v>
       </c>
     </row>
     <row r="61">
@@ -3800,49 +2928,41 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>7.43</v>
+        <v>7.3</v>
       </c>
       <c r="C61" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="D61" t="n">
-        <v>7.43</v>
+        <v>7.3</v>
       </c>
       <c r="E61" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="F61" t="n">
-        <v>67400</v>
+        <v>115334.5186</v>
       </c>
       <c r="G61" t="n">
-        <v>7.439666666666662</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>-0.1899999999999995</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>2.530000000000003</v>
+        <v>7.31</v>
       </c>
       <c r="K61" t="n">
-        <v>-48.5714285714286</v>
-      </c>
-      <c r="L61" t="n">
-        <v>7.507000000000001</v>
+        <v>7.3</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M61" t="n">
-        <v>7.482000000000001</v>
-      </c>
-      <c r="N61" t="n">
-        <v>7.473000000000002</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3851,49 +2971,41 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>7.39</v>
+        <v>7.3</v>
       </c>
       <c r="C62" t="n">
-        <v>7.24</v>
+        <v>7.3</v>
       </c>
       <c r="D62" t="n">
-        <v>7.39</v>
+        <v>7.3</v>
       </c>
       <c r="E62" t="n">
-        <v>7.24</v>
+        <v>7.3</v>
       </c>
       <c r="F62" t="n">
-        <v>174775.0128</v>
+        <v>1730</v>
       </c>
       <c r="G62" t="n">
-        <v>7.433833333333329</v>
+        <v>-77.77777777777821</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>-0.3499999999999996</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.690000000000003</v>
+        <v>7.3</v>
       </c>
       <c r="K62" t="n">
-        <v>-64.70588235294122</v>
-      </c>
-      <c r="L62" t="n">
-        <v>7.474000000000001</v>
+        <v>7.3</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M62" t="n">
-        <v>7.472000000000001</v>
-      </c>
-      <c r="N62" t="n">
-        <v>7.471000000000002</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3902,49 +3014,37 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>7.25</v>
+        <v>7.35</v>
       </c>
       <c r="C63" t="n">
-        <v>7.24</v>
+        <v>7.35</v>
       </c>
       <c r="D63" t="n">
-        <v>7.25</v>
+        <v>7.35</v>
       </c>
       <c r="E63" t="n">
-        <v>7.24</v>
+        <v>7.35</v>
       </c>
       <c r="F63" t="n">
-        <v>17405.161</v>
+        <v>9836.065000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>7.428499999999996</v>
+        <v>-17.64705882352957</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>-0.3499999999999996</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.690000000000003</v>
+        <v>7.3</v>
       </c>
       <c r="K63" t="n">
-        <v>-64.70588235294122</v>
-      </c>
-      <c r="L63" t="n">
-        <v>7.441</v>
-      </c>
+        <v>7.3</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>7.464500000000003</v>
-      </c>
-      <c r="N63" t="n">
-        <v>7.467333333333335</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3953,49 +3053,41 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7.25</v>
+        <v>7.34</v>
       </c>
       <c r="C64" t="n">
-        <v>7.24</v>
+        <v>7.34</v>
       </c>
       <c r="D64" t="n">
-        <v>7.25</v>
+        <v>7.34</v>
       </c>
       <c r="E64" t="n">
-        <v>7.24</v>
+        <v>7.34</v>
       </c>
       <c r="F64" t="n">
-        <v>30587.0208</v>
+        <v>27080</v>
       </c>
       <c r="G64" t="n">
-        <v>7.423166666666662</v>
+        <v>-22.22222222222228</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>-0.3499999999999996</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.690000000000003</v>
+        <v>7.35</v>
       </c>
       <c r="K64" t="n">
-        <v>-71.42857142857133</v>
-      </c>
-      <c r="L64" t="n">
-        <v>7.407999999999999</v>
+        <v>7.3</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M64" t="n">
-        <v>7.456500000000003</v>
-      </c>
-      <c r="N64" t="n">
-        <v>7.464000000000002</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4004,49 +3096,41 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7.24</v>
+        <v>7.37</v>
       </c>
       <c r="C65" t="n">
-        <v>7.22</v>
+        <v>7.38</v>
       </c>
       <c r="D65" t="n">
-        <v>7.24</v>
+        <v>7.38</v>
       </c>
       <c r="E65" t="n">
-        <v>7.22</v>
+        <v>7.37</v>
       </c>
       <c r="F65" t="n">
-        <v>22421.9502</v>
+        <v>52350.9346</v>
       </c>
       <c r="G65" t="n">
-        <v>7.41833333333333</v>
+        <v>46.66666666666674</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>-0.3700000000000001</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>2.710000000000004</v>
+        <v>7.34</v>
       </c>
       <c r="K65" t="n">
-        <v>-59.9999999999999</v>
-      </c>
-      <c r="L65" t="n">
-        <v>7.370999999999998</v>
+        <v>7.3</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M65" t="n">
-        <v>7.446500000000003</v>
-      </c>
-      <c r="N65" t="n">
-        <v>7.458666666666669</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4055,49 +3139,37 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7.23</v>
+        <v>7.41</v>
       </c>
       <c r="C66" t="n">
-        <v>7.22</v>
+        <v>7.43</v>
       </c>
       <c r="D66" t="n">
-        <v>7.23</v>
+        <v>7.43</v>
       </c>
       <c r="E66" t="n">
-        <v>7.22</v>
+        <v>7.41</v>
       </c>
       <c r="F66" t="n">
-        <v>83923.5033</v>
+        <v>169113.6287</v>
       </c>
       <c r="G66" t="n">
-        <v>7.412666666666664</v>
+        <v>59.99999999999973</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>-0.3700000000000001</v>
+        <v>1</v>
       </c>
       <c r="J66" t="n">
-        <v>2.710000000000004</v>
+        <v>7.38</v>
       </c>
       <c r="K66" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L66" t="n">
-        <v>7.349999999999997</v>
-      </c>
+        <v>7.38</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>7.436500000000004</v>
-      </c>
-      <c r="N66" t="n">
-        <v>7.451666666666669</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,49 +3178,41 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7.22</v>
+        <v>7.46</v>
       </c>
       <c r="C67" t="n">
-        <v>7.22</v>
+        <v>7.61</v>
       </c>
       <c r="D67" t="n">
-        <v>7.22</v>
+        <v>7.61</v>
       </c>
       <c r="E67" t="n">
-        <v>7.22</v>
+        <v>7.46</v>
       </c>
       <c r="F67" t="n">
-        <v>215562.9869</v>
+        <v>1000</v>
       </c>
       <c r="G67" t="n">
-        <v>7.408666666666664</v>
+        <v>78.37837837837817</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.3700000000000001</v>
+        <v>1</v>
       </c>
       <c r="J67" t="n">
-        <v>2.710000000000004</v>
+        <v>7.43</v>
       </c>
       <c r="K67" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L67" t="n">
-        <v>7.321999999999997</v>
+        <v>7.38</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M67" t="n">
-        <v>7.427500000000004</v>
-      </c>
-      <c r="N67" t="n">
-        <v>7.438666666666668</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4157,49 +3221,41 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7.28</v>
+        <v>7.55</v>
       </c>
       <c r="C68" t="n">
-        <v>7.36</v>
+        <v>7.61</v>
       </c>
       <c r="D68" t="n">
-        <v>7.36</v>
+        <v>7.61</v>
       </c>
       <c r="E68" t="n">
-        <v>7.28</v>
+        <v>7.55</v>
       </c>
       <c r="F68" t="n">
-        <v>10454.4518</v>
+        <v>39411.4569</v>
       </c>
       <c r="G68" t="n">
-        <v>7.40683333333333</v>
+        <v>88.57142857142836</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>-0.2299999999999995</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>2.850000000000004</v>
+        <v>7.61</v>
       </c>
       <c r="K68" t="n">
-        <v>-29.99999999999993</v>
-      </c>
-      <c r="L68" t="n">
-        <v>7.308999999999997</v>
+        <v>7.38</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>7.420500000000004</v>
-      </c>
-      <c r="N68" t="n">
-        <v>7.430333333333335</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4208,49 +3264,37 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7.3</v>
+        <v>7.47</v>
       </c>
       <c r="C69" t="n">
-        <v>7.3</v>
+        <v>7.47</v>
       </c>
       <c r="D69" t="n">
-        <v>7.3</v>
+        <v>7.47</v>
       </c>
       <c r="E69" t="n">
-        <v>7.3</v>
+        <v>7.47</v>
       </c>
       <c r="F69" t="n">
-        <v>8000</v>
+        <v>65000</v>
       </c>
       <c r="G69" t="n">
-        <v>7.404333333333331</v>
+        <v>33.33333333333321</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>-0.29</v>
+        <v>1</v>
       </c>
       <c r="J69" t="n">
-        <v>2.910000000000005</v>
+        <v>7.61</v>
       </c>
       <c r="K69" t="n">
-        <v>-37.77777777777767</v>
-      </c>
-      <c r="L69" t="n">
-        <v>7.290999999999997</v>
-      </c>
+        <v>7.61</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>7.414000000000004</v>
-      </c>
-      <c r="N69" t="n">
-        <v>7.424666666666669</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4259,49 +3303,41 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>7.31</v>
+        <v>7.61</v>
       </c>
       <c r="C70" t="n">
-        <v>7.31</v>
+        <v>7.61</v>
       </c>
       <c r="D70" t="n">
-        <v>7.31</v>
+        <v>7.61</v>
       </c>
       <c r="E70" t="n">
-        <v>7.31</v>
+        <v>7.61</v>
       </c>
       <c r="F70" t="n">
-        <v>19834.814</v>
+        <v>11.5344</v>
       </c>
       <c r="G70" t="n">
-        <v>7.402166666666664</v>
+        <v>50.81967213114738</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>-0.2800000000000002</v>
+        <v>1</v>
       </c>
       <c r="J70" t="n">
-        <v>2.920000000000004</v>
+        <v>7.47</v>
       </c>
       <c r="K70" t="n">
-        <v>-23.07692307692318</v>
-      </c>
-      <c r="L70" t="n">
-        <v>7.274999999999997</v>
+        <v>7.61</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M70" t="n">
-        <v>7.400000000000004</v>
-      </c>
-      <c r="N70" t="n">
-        <v>7.414666666666668</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4310,49 +3346,41 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>7.31</v>
+        <v>7.47</v>
       </c>
       <c r="C71" t="n">
-        <v>7.3</v>
+        <v>7.45</v>
       </c>
       <c r="D71" t="n">
-        <v>7.31</v>
+        <v>7.47</v>
       </c>
       <c r="E71" t="n">
-        <v>7.3</v>
+        <v>7.45</v>
       </c>
       <c r="F71" t="n">
-        <v>5388.7013</v>
+        <v>169113.6287</v>
       </c>
       <c r="G71" t="n">
-        <v>7.399999999999998</v>
+        <v>19.48051948051945</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>-0.29</v>
+        <v>1</v>
       </c>
       <c r="J71" t="n">
-        <v>2.930000000000004</v>
+        <v>7.61</v>
       </c>
       <c r="K71" t="n">
-        <v>24.99999999999972</v>
-      </c>
-      <c r="L71" t="n">
-        <v>7.264999999999996</v>
+        <v>7.61</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>7.386000000000005</v>
-      </c>
-      <c r="N71" t="n">
-        <v>7.409666666666669</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4361,49 +3389,41 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7.36</v>
+        <v>7.44</v>
       </c>
       <c r="C72" t="n">
-        <v>7.36</v>
+        <v>7.44</v>
       </c>
       <c r="D72" t="n">
-        <v>7.36</v>
+        <v>7.44</v>
       </c>
       <c r="E72" t="n">
-        <v>7.36</v>
+        <v>7.44</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>1344.086</v>
       </c>
       <c r="G72" t="n">
-        <v>7.399333333333332</v>
+        <v>12.32876712328774</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>-0.2299999999999995</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.990000000000005</v>
+        <v>7.45</v>
       </c>
       <c r="K72" t="n">
-        <v>39.99999999999982</v>
-      </c>
-      <c r="L72" t="n">
-        <v>7.276999999999997</v>
+        <v>7.61</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>7.375500000000005</v>
-      </c>
-      <c r="N72" t="n">
-        <v>7.407000000000003</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4412,49 +3432,41 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7.34</v>
+        <v>7.39</v>
       </c>
       <c r="C73" t="n">
-        <v>7.34</v>
+        <v>7.39</v>
       </c>
       <c r="D73" t="n">
-        <v>7.34</v>
+        <v>7.39</v>
       </c>
       <c r="E73" t="n">
-        <v>7.34</v>
+        <v>7.39</v>
       </c>
       <c r="F73" t="n">
-        <v>100</v>
+        <v>9664.429</v>
       </c>
       <c r="G73" t="n">
-        <v>7.396999999999998</v>
+        <v>6.493506493506445</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>3.010000000000005</v>
+        <v>7.44</v>
       </c>
       <c r="K73" t="n">
-        <v>31.24999999999969</v>
-      </c>
-      <c r="L73" t="n">
-        <v>7.286999999999997</v>
+        <v>7.61</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>7.364000000000006</v>
-      </c>
-      <c r="N73" t="n">
-        <v>7.405333333333337</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4463,49 +3475,41 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7.36</v>
+        <v>7.4</v>
       </c>
       <c r="C74" t="n">
-        <v>7.36</v>
+        <v>7.4</v>
       </c>
       <c r="D74" t="n">
-        <v>7.36</v>
+        <v>7.4</v>
       </c>
       <c r="E74" t="n">
-        <v>7.36</v>
+        <v>7.4</v>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>3740.7967</v>
       </c>
       <c r="G74" t="n">
-        <v>7.395333333333332</v>
+        <v>2.702702702702758</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>-0.2299999999999995</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>3.030000000000006</v>
+        <v>7.39</v>
       </c>
       <c r="K74" t="n">
-        <v>43.74999999999989</v>
-      </c>
-      <c r="L74" t="n">
-        <v>7.298999999999998</v>
+        <v>7.61</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>7.353500000000007</v>
-      </c>
-      <c r="N74" t="n">
-        <v>7.404000000000004</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4514,49 +3518,41 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7.36</v>
+        <v>7.42</v>
       </c>
       <c r="C75" t="n">
-        <v>7.36</v>
+        <v>7.42</v>
       </c>
       <c r="D75" t="n">
-        <v>7.36</v>
+        <v>7.42</v>
       </c>
       <c r="E75" t="n">
-        <v>7.36</v>
+        <v>7.42</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>33.4231</v>
       </c>
       <c r="G75" t="n">
-        <v>7.394833333333333</v>
+        <v>-1.40845070422532</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>-0.2299999999999995</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>3.030000000000006</v>
+        <v>7.4</v>
       </c>
       <c r="K75" t="n">
-        <v>43.74999999999989</v>
-      </c>
-      <c r="L75" t="n">
-        <v>7.312999999999998</v>
+        <v>7.61</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>7.342000000000008</v>
-      </c>
-      <c r="N75" t="n">
-        <v>7.402000000000005</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4565,49 +3561,41 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>7.36</v>
+        <v>7.42</v>
       </c>
       <c r="C76" t="n">
-        <v>7.36</v>
+        <v>7.42</v>
       </c>
       <c r="D76" t="n">
-        <v>7.36</v>
+        <v>7.42</v>
       </c>
       <c r="E76" t="n">
-        <v>7.36</v>
+        <v>7.42</v>
       </c>
       <c r="F76" t="n">
-        <v>7153.1522</v>
+        <v>54711.0264</v>
       </c>
       <c r="G76" t="n">
-        <v>7.394666666666666</v>
+        <v>-35.84905660377358</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>-0.2299999999999995</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
-        <v>3.030000000000006</v>
+        <v>7.42</v>
       </c>
       <c r="K76" t="n">
-        <v>43.74999999999989</v>
-      </c>
-      <c r="L76" t="n">
-        <v>7.326999999999998</v>
+        <v>7.61</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>7.338500000000008</v>
-      </c>
-      <c r="N76" t="n">
-        <v>7.400000000000006</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4616,49 +3604,41 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7.36</v>
+        <v>7.46</v>
       </c>
       <c r="C77" t="n">
-        <v>7.36</v>
+        <v>7.4</v>
       </c>
       <c r="D77" t="n">
-        <v>7.36</v>
+        <v>7.46</v>
       </c>
       <c r="E77" t="n">
-        <v>7.36</v>
+        <v>7.4</v>
       </c>
       <c r="F77" t="n">
-        <v>2659.4836</v>
+        <v>54811.026</v>
       </c>
       <c r="G77" t="n">
-        <v>7.394166666666666</v>
+        <v>-38.18181818181813</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>-0.2299999999999995</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>3.030000000000006</v>
+        <v>7.42</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
-      </c>
-      <c r="L77" t="n">
-        <v>7.340999999999998</v>
+        <v>7.61</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>7.331500000000008</v>
-      </c>
-      <c r="N77" t="n">
-        <v>7.398666666666672</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4667,49 +3647,41 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7.37</v>
+        <v>7.46</v>
       </c>
       <c r="C78" t="n">
-        <v>7.37</v>
+        <v>7.5</v>
       </c>
       <c r="D78" t="n">
-        <v>7.37</v>
+        <v>7.5</v>
       </c>
       <c r="E78" t="n">
-        <v>7.37</v>
+        <v>7.46</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>52672.443</v>
       </c>
       <c r="G78" t="n">
-        <v>7.394166666666666</v>
+        <v>5.882352941176522</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>-0.2199999999999998</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>3.040000000000005</v>
+        <v>7.4</v>
       </c>
       <c r="K78" t="n">
-        <v>53.84615384615374</v>
-      </c>
-      <c r="L78" t="n">
-        <v>7.341999999999999</v>
+        <v>7.61</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>7.325500000000008</v>
-      </c>
-      <c r="N78" t="n">
-        <v>7.394333333333339</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,49 +3690,41 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7.36</v>
+        <v>7.43</v>
       </c>
       <c r="C79" t="n">
-        <v>7.36</v>
+        <v>7.43</v>
       </c>
       <c r="D79" t="n">
-        <v>7.36</v>
+        <v>7.43</v>
       </c>
       <c r="E79" t="n">
-        <v>7.36</v>
+        <v>7.43</v>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="G79" t="n">
-        <v>7.394833333333334</v>
+        <v>-40.90909090909109</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.2299999999999995</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>3.050000000000005</v>
+        <v>7.5</v>
       </c>
       <c r="K79" t="n">
-        <v>38.46153846153877</v>
-      </c>
-      <c r="L79" t="n">
-        <v>7.347999999999999</v>
+        <v>7.61</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>7.319500000000009</v>
-      </c>
-      <c r="N79" t="n">
-        <v>7.392000000000007</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4769,49 +3733,41 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7.36</v>
+        <v>7.45</v>
       </c>
       <c r="C80" t="n">
-        <v>7.36</v>
+        <v>7.59</v>
       </c>
       <c r="D80" t="n">
-        <v>7.36</v>
+        <v>7.59</v>
       </c>
       <c r="E80" t="n">
-        <v>7.36</v>
+        <v>7.45</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>44.4161</v>
       </c>
       <c r="G80" t="n">
-        <v>7.395666666666667</v>
+        <v>31.81818181818178</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>-0.2299999999999995</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>3.050000000000005</v>
+        <v>7.43</v>
       </c>
       <c r="K80" t="n">
-        <v>50</v>
-      </c>
-      <c r="L80" t="n">
-        <v>7.352999999999999</v>
+        <v>7.61</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>7.31400000000001</v>
-      </c>
-      <c r="N80" t="n">
-        <v>7.38433333333334</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4820,49 +3776,41 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>7.37</v>
+        <v>7.58</v>
       </c>
       <c r="C81" t="n">
-        <v>7.43</v>
+        <v>7.58</v>
       </c>
       <c r="D81" t="n">
-        <v>7.43</v>
+        <v>7.58</v>
       </c>
       <c r="E81" t="n">
-        <v>7.37</v>
+        <v>7.58</v>
       </c>
       <c r="F81" t="n">
-        <v>247730.148</v>
+        <v>40077.8364</v>
       </c>
       <c r="G81" t="n">
-        <v>7.3975</v>
+        <v>31.81818181818178</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>-0.1600000000000001</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>3.120000000000005</v>
+        <v>7.59</v>
       </c>
       <c r="K81" t="n">
-        <v>53.84615384615342</v>
-      </c>
-      <c r="L81" t="n">
-        <v>7.365999999999998</v>
+        <v>7.61</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>7.31550000000001</v>
-      </c>
-      <c r="N81" t="n">
-        <v>7.37933333333334</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4871,50 +3819,42 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>7.4</v>
+        <v>7.57</v>
       </c>
       <c r="C82" t="n">
-        <v>7.4</v>
+        <v>7.57</v>
       </c>
       <c r="D82" t="n">
-        <v>7.4</v>
+        <v>7.57</v>
       </c>
       <c r="E82" t="n">
-        <v>7.4</v>
+        <v>7.57</v>
       </c>
       <c r="F82" t="n">
-        <v>431.7081</v>
+        <v>40640</v>
       </c>
       <c r="G82" t="n">
-        <v>7.399166666666667</v>
+        <v>45.00000000000031</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>-0.1899999999999995</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>3.150000000000004</v>
+        <v>7.58</v>
       </c>
       <c r="K82" t="n">
-        <v>42.85714285714358</v>
-      </c>
-      <c r="L82" t="n">
-        <v>7.369999999999999</v>
+        <v>7.61</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>7.32350000000001</v>
-      </c>
-      <c r="N82" t="n">
-        <v>7.373666666666674</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
-        <v>1</v>
+        <v>0.9897437582128777</v>
       </c>
     </row>
     <row r="83">
@@ -4922,49 +3862,41 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7.31</v>
+        <v>7.57</v>
       </c>
       <c r="C83" t="n">
-        <v>7.31</v>
+        <v>7.57</v>
       </c>
       <c r="D83" t="n">
-        <v>7.31</v>
+        <v>7.57</v>
       </c>
       <c r="E83" t="n">
-        <v>7.31</v>
+        <v>7.57</v>
       </c>
       <c r="F83" t="n">
-        <v>19759.5075</v>
+        <v>39312.9283</v>
       </c>
       <c r="G83" t="n">
-        <v>7.397</v>
+        <v>43.5897435897437</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>-0.2800000000000002</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>3.240000000000005</v>
+        <v>7.57</v>
       </c>
       <c r="K83" t="n">
-        <v>-23.80952380952425</v>
-      </c>
-      <c r="L83" t="n">
-        <v>7.366999999999999</v>
+        <v>7.59</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>7.32700000000001</v>
-      </c>
-      <c r="N83" t="n">
-        <v>7.365000000000007</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4973,49 +3905,846 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>7.27</v>
+        <v>7.57</v>
       </c>
       <c r="C84" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="D84" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="E84" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F84" t="n">
+        <v>2609.8193</v>
+      </c>
+      <c r="G84" t="n">
+        <v>40.54054054054072</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="K84" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="C85" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="D85" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="E85" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="F85" t="n">
+        <v>100</v>
+      </c>
+      <c r="G85" t="n">
+        <v>43.5897435897437</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="K85" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="C86" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="D86" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="E86" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="F86" t="n">
+        <v>73</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5.660377358490452</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="K86" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="C87" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D87" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="E87" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F87" t="n">
+        <v>81715.4653</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="K87" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="C88" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="D88" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="E88" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="F88" t="n">
+        <v>2992.5</v>
+      </c>
+      <c r="G88" t="n">
+        <v>13.63636363636377</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="C89" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="D89" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="E89" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="F89" t="n">
+        <v>91642.9648</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-37.93103448275853</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="K89" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="C90" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="D90" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="E90" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="F90" t="n">
+        <v>2468.540829986613</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-37.93103448275884</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="K90" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="C91" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D91" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="E91" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F91" t="n">
+        <v>67400</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-48.5714285714286</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="K91" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="C92" t="n">
         <v>7.24</v>
       </c>
-      <c r="D84" t="n">
-        <v>7.27</v>
-      </c>
-      <c r="E84" t="n">
+      <c r="D92" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="E92" t="n">
         <v>7.24</v>
       </c>
-      <c r="F84" t="n">
-        <v>80110.43429999999</v>
-      </c>
-      <c r="G84" t="n">
-        <v>7.394666666666667</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>-0.3499999999999996</v>
-      </c>
-      <c r="J84" t="n">
-        <v>3.310000000000004</v>
-      </c>
-      <c r="K84" t="n">
-        <v>-42.85714285714312</v>
-      </c>
-      <c r="L84" t="n">
-        <v>7.354999999999999</v>
-      </c>
-      <c r="M84" t="n">
-        <v>7.32700000000001</v>
-      </c>
-      <c r="N84" t="n">
-        <v>7.354000000000008</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
+      <c r="F92" t="n">
+        <v>174775.0128</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-64.70588235294122</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K92" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="C93" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="D93" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="E93" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="F93" t="n">
+        <v>17405.161</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-64.70588235294122</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="K93" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="C94" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="D94" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="E94" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="F94" t="n">
+        <v>30587.0208</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-71.42857142857133</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="K94" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="C95" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="D95" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="E95" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F95" t="n">
+        <v>22421.9502</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-60.00000000000006</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="K95" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="C96" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="D96" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="E96" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F96" t="n">
+        <v>83923.5033</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-100.0000000000003</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="K96" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="C97" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="D97" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="E97" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F97" t="n">
+        <v>215562.9869</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-100.0000000000003</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="K97" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="C98" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="D98" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="E98" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="F98" t="n">
+        <v>10454.4518</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-30</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="K98" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C99" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D99" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E99" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F99" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-37.77777777777767</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="K99" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="C100" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="D100" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="E100" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="F100" t="n">
+        <v>19834.814</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-23.07692307692323</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="K100" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="C101" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D101" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="E101" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F101" t="n">
+        <v>5388.7013</v>
+      </c>
+      <c r="G101" t="n">
+        <v>24.99999999999982</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K101" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="C102" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="E102" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="F102" t="n">
+        <v>10</v>
+      </c>
+      <c r="G102" t="n">
+        <v>39.99999999999994</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="K102" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>0.9789572192513368</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="C103" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="E103" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="F103" t="n">
+        <v>100</v>
+      </c>
+      <c r="G103" t="n">
+        <v>31.24999999999986</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="K103" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-14 BackTest IOST.xlsx
+++ b/BackTest/2019-10-14 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -425,6 +425,11 @@
       <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
         </is>
       </c>
     </row>
@@ -448,10 +453,10 @@
         <v>363304.5781</v>
       </c>
       <c r="G2" t="n">
-        <v>-39.78494623655905</v>
+        <v>1938093.025503056</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,26 +489,21 @@
         <v>64948.0701</v>
       </c>
       <c r="G3" t="n">
-        <v>-34.88372093023246</v>
+        <v>1873144.955403056</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="J3" t="n">
-        <v>7.52</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -524,26 +525,21 @@
         <v>183175.3629</v>
       </c>
       <c r="G4" t="n">
-        <v>-34.88372093023246</v>
+        <v>1689969.592503056</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
-      <c r="J4" t="n">
-        <v>7.51</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -565,26 +561,21 @@
         <v>51.6</v>
       </c>
       <c r="G5" t="n">
-        <v>-15.15151515151505</v>
+        <v>1689969.592503056</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,26 +597,21 @@
         <v>2222.513</v>
       </c>
       <c r="G6" t="n">
-        <v>-72.72727272727259</v>
+        <v>1689969.592503056</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -647,26 +633,21 @@
         <v>150</v>
       </c>
       <c r="G7" t="n">
-        <v>-58.974358974359</v>
+        <v>1690119.592503056</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
-        <v>7.5</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -688,26 +669,21 @@
         <v>123.5231</v>
       </c>
       <c r="G8" t="n">
-        <v>-6.250000000000121</v>
+        <v>1690243.115603056</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>7.52</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -729,26 +705,21 @@
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>17.948717948718</v>
+        <v>1690253.115603056</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="J9" t="n">
-        <v>7.59</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -770,26 +741,21 @@
         <v>2232.513</v>
       </c>
       <c r="G10" t="n">
-        <v>-24.4444444444445</v>
+        <v>1688020.602603056</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>7.67</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -811,26 +777,21 @@
         <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>28.20512820512831</v>
+        <v>1688030.602603056</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
-        <v>7.55</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -852,26 +813,21 @@
         <v>31077.6259</v>
       </c>
       <c r="G12" t="n">
-        <v>2.040816326530568</v>
+        <v>1656952.976703056</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
-        <v>7.63</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -893,26 +849,21 @@
         <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>19.2982456140351</v>
+        <v>1656962.976703056</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
-        <v>7.52</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -934,24 +885,21 @@
         <v>104347.4125</v>
       </c>
       <c r="G14" t="n">
-        <v>15.25423728813553</v>
+        <v>1552615.564203056</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>7.61</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -973,28 +921,21 @@
         <v>25.3628</v>
       </c>
       <c r="G15" t="n">
-        <v>18.03278688524589</v>
+        <v>1552640.927003056</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="J15" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="K15" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1016,24 +957,21 @@
         <v>11239.0728</v>
       </c>
       <c r="G16" t="n">
-        <v>4.615384615384633</v>
+        <v>1541401.854203056</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="J16" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="K16" t="n">
-        <v>7.61</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1055,28 +993,21 @@
         <v>65996.2466</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.896551724137905</v>
+        <v>1541401.854203056</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
-      <c r="J17" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="K17" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1098,28 +1029,21 @@
         <v>97.8909</v>
       </c>
       <c r="G18" t="n">
-        <v>-10.71428571428558</v>
+        <v>1541499.745103056</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
-      <c r="J18" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="K18" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1141,28 +1065,21 @@
         <v>7044.627</v>
       </c>
       <c r="G19" t="n">
-        <v>35.5932203389829</v>
+        <v>1548544.372103056</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
-      <c r="J19" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="K19" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1184,28 +1101,21 @@
         <v>491.3588</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.246376811594154</v>
+        <v>1548053.013303056</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
-        <v>7.76</v>
-      </c>
-      <c r="K20" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1227,28 +1137,21 @@
         <v>1295.2463</v>
       </c>
       <c r="G21" t="n">
-        <v>4.91803278688527</v>
+        <v>1546757.767003056</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="K21" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1270,28 +1173,21 @@
         <v>5400</v>
       </c>
       <c r="G22" t="n">
-        <v>-11.5384615384616</v>
+        <v>1546757.767003056</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="K22" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1313,28 +1209,21 @@
         <v>2927.769</v>
       </c>
       <c r="G23" t="n">
-        <v>-9.803921568627404</v>
+        <v>1543829.998003056</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="K23" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1356,28 +1245,21 @@
         <v>8256.080400000001</v>
       </c>
       <c r="G24" t="n">
-        <v>-17.64705882352953</v>
+        <v>1535573.917603056</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="K24" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1399,28 +1281,21 @@
         <v>10</v>
       </c>
       <c r="G25" t="n">
-        <v>17.24137931034489</v>
+        <v>1535583.917603056</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>7.52</v>
-      </c>
-      <c r="K25" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1442,28 +1317,21 @@
         <v>111402.0395</v>
       </c>
       <c r="G26" t="n">
-        <v>-6.849315068493114</v>
+        <v>1424181.878103056</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="J26" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="K26" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1485,28 +1353,21 @@
         <v>472038.8253</v>
       </c>
       <c r="G27" t="n">
-        <v>-18.8405797101449</v>
+        <v>952143.052803056</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="J27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K27" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1528,28 +1389,21 @@
         <v>108189.6272</v>
       </c>
       <c r="G28" t="n">
-        <v>-54.38596491228053</v>
+        <v>843953.425603056</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="J28" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="K28" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1571,28 +1425,21 @@
         <v>8478.5054</v>
       </c>
       <c r="G29" t="n">
-        <v>-29.99999999999993</v>
+        <v>852431.931003056</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
       </c>
-      <c r="J29" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="K29" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1614,28 +1461,21 @@
         <v>498.375</v>
       </c>
       <c r="G30" t="n">
-        <v>-26.31578947368406</v>
+        <v>851933.556003056</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="K30" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>0.9739750328515111</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1657,28 +1497,21 @@
         <v>546.5743</v>
       </c>
       <c r="G31" t="n">
-        <v>7.692307692307693</v>
+        <v>852480.130303056</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="K31" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1700,24 +1533,21 @@
         <v>132.1343</v>
       </c>
       <c r="G32" t="n">
-        <v>9.803921568627404</v>
+        <v>852480.130303056</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="K32" t="n">
-        <v>7.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1739,28 +1569,21 @@
         <v>73690.016</v>
       </c>
       <c r="G33" t="n">
-        <v>7.692307692307693</v>
+        <v>778790.1143030559</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="K33" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1782,28 +1605,21 @@
         <v>33590.275</v>
       </c>
       <c r="G34" t="n">
-        <v>-23.07692307692329</v>
+        <v>778790.1143030559</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="K34" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1825,28 +1641,21 @@
         <v>36679.2896</v>
       </c>
       <c r="G35" t="n">
-        <v>3.448275862068902</v>
+        <v>742110.8247030559</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="K35" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1868,28 +1677,21 @@
         <v>50</v>
       </c>
       <c r="G36" t="n">
-        <v>24.99999999999979</v>
+        <v>742160.8247030559</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="K36" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1911,28 +1713,21 @@
         <v>31374.619</v>
       </c>
       <c r="G37" t="n">
-        <v>2.564102564102518</v>
+        <v>710786.205703056</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="K37" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1954,28 +1749,21 @@
         <v>21581.638</v>
       </c>
       <c r="G38" t="n">
-        <v>2.564102564102518</v>
+        <v>732367.843703056</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="K38" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1997,28 +1785,21 @@
         <v>104300.9662</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>628066.877503056</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="K39" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2040,28 +1821,21 @@
         <v>122185.3246</v>
       </c>
       <c r="G40" t="n">
-        <v>-55.55555555555581</v>
+        <v>505881.552903056</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="K40" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2083,28 +1857,21 @@
         <v>69837.7594</v>
       </c>
       <c r="G41" t="n">
-        <v>-57.14285714285733</v>
+        <v>436043.793503056</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="K41" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2126,28 +1893,21 @@
         <v>191829.6274</v>
       </c>
       <c r="G42" t="n">
-        <v>-57.14285714285718</v>
+        <v>244214.166103056</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="K42" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2169,28 +1929,21 @@
         <v>32035.5614</v>
       </c>
       <c r="G43" t="n">
-        <v>-22.22222222222209</v>
+        <v>276249.727503056</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K43" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2212,28 +1965,21 @@
         <v>43299.8884</v>
       </c>
       <c r="G44" t="n">
-        <v>-15.15151515151518</v>
+        <v>232949.839103056</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="K44" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2255,28 +2001,27 @@
         <v>32024.1211</v>
       </c>
       <c r="G45" t="n">
-        <v>-48.57142857142873</v>
+        <v>200925.718003056</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>7.46</v>
       </c>
-      <c r="K45" t="n">
-        <v>7.59</v>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2298,28 +2043,25 @@
         <v>797.023</v>
       </c>
       <c r="G46" t="n">
-        <v>-33.33333333333344</v>
+        <v>200128.695003056</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="K46" t="n">
-        <v>7.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>0.9660144927536232</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2341,28 +2083,25 @@
         <v>11.6373</v>
       </c>
       <c r="G47" t="n">
-        <v>-28.57142857142875</v>
+        <v>200140.332303056</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="K47" t="n">
-        <v>7.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2384,28 +2123,25 @@
         <v>141</v>
       </c>
       <c r="G48" t="n">
-        <v>-28.57142857142875</v>
+        <v>199999.332303056</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="K48" t="n">
-        <v>7.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2427,28 +2163,25 @@
         <v>129224.8381</v>
       </c>
       <c r="G49" t="n">
-        <v>-37.5</v>
+        <v>70774.49420305603</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="K49" t="n">
-        <v>7.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2470,20 +2203,16 @@
         <v>5064.9009</v>
       </c>
       <c r="G50" t="n">
-        <v>-37.5</v>
+        <v>65709.59330305604</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="K50" t="n">
-        <v>7.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2492,6 +2221,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2513,20 +2243,16 @@
         <v>1605</v>
       </c>
       <c r="G51" t="n">
-        <v>-26.66666666666647</v>
+        <v>67314.59330305604</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K51" t="n">
-        <v>7.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2535,6 +2261,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2556,20 +2283,16 @@
         <v>84227.76390000001</v>
       </c>
       <c r="G52" t="n">
-        <v>-74.99999999999963</v>
+        <v>-16913.17059694396</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="K52" t="n">
-        <v>7.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2578,6 +2301,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2599,20 +2323,16 @@
         <v>60.4838</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.555555555555391</v>
+        <v>-16852.68679694396</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="K53" t="n">
-        <v>7.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2621,6 +2341,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2642,20 +2363,16 @@
         <v>23.5975</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.85714285714277</v>
+        <v>-16876.28429694396</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="K54" t="n">
-        <v>7.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2664,6 +2381,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2685,20 +2403,16 @@
         <v>73</v>
       </c>
       <c r="G55" t="n">
-        <v>3.030303030302933</v>
+        <v>-16876.28429694396</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="K55" t="n">
-        <v>7.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2707,6 +2421,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2728,20 +2443,16 @@
         <v>9402.550999999999</v>
       </c>
       <c r="G56" t="n">
-        <v>-21.05263157894715</v>
+        <v>-26278.83529694396</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="K56" t="n">
-        <v>7.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2750,6 +2461,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2771,20 +2483,16 @@
         <v>3150</v>
       </c>
       <c r="G57" t="n">
-        <v>-16.66666666666659</v>
+        <v>-26278.83529694396</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K57" t="n">
-        <v>7.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2793,6 +2501,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2814,20 +2523,16 @@
         <v>148.6928</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>-26130.14249694396</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K58" t="n">
-        <v>7.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2836,6 +2541,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2857,20 +2563,16 @@
         <v>181971.4498</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.030303030302949</v>
+        <v>-208101.592296944</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="K59" t="n">
-        <v>7.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2879,6 +2581,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2900,28 +2603,25 @@
         <v>10433.277</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.030303030303234</v>
+        <v>-197668.315296944</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="K60" t="n">
-        <v>7.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>0.9841745602165087</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2943,28 +2643,25 @@
         <v>115334.5186</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>-313002.833896944</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
-      </c>
-      <c r="J61" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K61" t="n">
-        <v>7.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2986,28 +2683,25 @@
         <v>1730</v>
       </c>
       <c r="G62" t="n">
-        <v>-77.77777777777821</v>
+        <v>-313002.833896944</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
-      </c>
-      <c r="J62" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="K62" t="n">
-        <v>7.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3029,24 +2723,25 @@
         <v>9836.065000000001</v>
       </c>
       <c r="G63" t="n">
-        <v>-17.64705882352957</v>
+        <v>-303166.7688969439</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="K63" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="L63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3068,28 +2763,25 @@
         <v>27080</v>
       </c>
       <c r="G64" t="n">
-        <v>-22.22222222222228</v>
+        <v>-330246.7688969439</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="K64" t="n">
-        <v>7.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3111,28 +2803,25 @@
         <v>52350.9346</v>
       </c>
       <c r="G65" t="n">
-        <v>46.66666666666674</v>
+        <v>-277895.834296944</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="K65" t="n">
-        <v>7.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3154,24 +2843,25 @@
         <v>169113.6287</v>
       </c>
       <c r="G66" t="n">
-        <v>59.99999999999973</v>
+        <v>-108782.205596944</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="K66" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="L66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3193,28 +2883,25 @@
         <v>1000</v>
       </c>
       <c r="G67" t="n">
-        <v>78.37837837837817</v>
+        <v>-107782.205596944</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="K67" t="n">
-        <v>7.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3236,28 +2923,25 @@
         <v>39411.4569</v>
       </c>
       <c r="G68" t="n">
-        <v>88.57142857142836</v>
+        <v>-107782.205596944</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>1</v>
-      </c>
-      <c r="J68" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="K68" t="n">
-        <v>7.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3279,24 +2963,25 @@
         <v>65000</v>
       </c>
       <c r="G69" t="n">
-        <v>33.33333333333321</v>
+        <v>-172782.205596944</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="K69" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="L69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3318,28 +3003,25 @@
         <v>11.5344</v>
       </c>
       <c r="G70" t="n">
-        <v>50.81967213114738</v>
+        <v>-172770.671196944</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="K70" t="n">
-        <v>7.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3361,28 +3043,25 @@
         <v>169113.6287</v>
       </c>
       <c r="G71" t="n">
-        <v>19.48051948051945</v>
+        <v>-341884.299896944</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="K71" t="n">
-        <v>7.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3404,20 +3083,16 @@
         <v>1344.086</v>
       </c>
       <c r="G72" t="n">
-        <v>12.32876712328774</v>
+        <v>-343228.385896944</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
-      </c>
-      <c r="J72" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="K72" t="n">
-        <v>7.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3426,6 +3101,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3447,20 +3123,16 @@
         <v>9664.429</v>
       </c>
       <c r="G73" t="n">
-        <v>6.493506493506445</v>
+        <v>-352892.814896944</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="K73" t="n">
-        <v>7.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3469,6 +3141,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3490,20 +3163,16 @@
         <v>3740.7967</v>
       </c>
       <c r="G74" t="n">
-        <v>2.702702702702758</v>
+        <v>-349152.018196944</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="K74" t="n">
-        <v>7.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3512,6 +3181,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3533,20 +3203,16 @@
         <v>33.4231</v>
       </c>
       <c r="G75" t="n">
-        <v>-1.40845070422532</v>
+        <v>-349118.595096944</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K75" t="n">
-        <v>7.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3555,6 +3221,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3576,20 +3243,16 @@
         <v>54711.0264</v>
       </c>
       <c r="G76" t="n">
-        <v>-35.84905660377358</v>
+        <v>-349118.595096944</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="K76" t="n">
-        <v>7.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3598,6 +3261,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3619,20 +3283,16 @@
         <v>54811.026</v>
       </c>
       <c r="G77" t="n">
-        <v>-38.18181818181813</v>
+        <v>-403929.621096944</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
-      </c>
-      <c r="J77" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="K77" t="n">
-        <v>7.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3641,6 +3301,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3662,20 +3323,16 @@
         <v>52672.443</v>
       </c>
       <c r="G78" t="n">
-        <v>5.882352941176522</v>
+        <v>-351257.178096944</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
-      </c>
-      <c r="J78" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K78" t="n">
-        <v>7.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3684,6 +3341,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3705,20 +3363,16 @@
         <v>50</v>
       </c>
       <c r="G79" t="n">
-        <v>-40.90909090909109</v>
+        <v>-351307.178096944</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K79" t="n">
-        <v>7.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3727,6 +3381,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3748,20 +3403,16 @@
         <v>44.4161</v>
       </c>
       <c r="G80" t="n">
-        <v>31.81818181818178</v>
+        <v>-351262.761996944</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
-      </c>
-      <c r="J80" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="K80" t="n">
-        <v>7.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3770,6 +3421,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3791,20 +3443,16 @@
         <v>40077.8364</v>
       </c>
       <c r="G81" t="n">
-        <v>31.81818181818178</v>
+        <v>-391340.598396944</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="K81" t="n">
-        <v>7.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3813,6 +3461,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3834,28 +3483,25 @@
         <v>40640</v>
       </c>
       <c r="G82" t="n">
-        <v>45.00000000000031</v>
+        <v>-431980.598396944</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="K82" t="n">
-        <v>7.61</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>0.9897437582128777</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3877,28 +3523,25 @@
         <v>39312.9283</v>
       </c>
       <c r="G83" t="n">
-        <v>43.5897435897437</v>
+        <v>-431980.598396944</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="K83" t="n">
-        <v>7.59</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3920,24 +3563,25 @@
         <v>2609.8193</v>
       </c>
       <c r="G84" t="n">
-        <v>40.54054054054072</v>
+        <v>-431980.598396944</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
-      </c>
-      <c r="J84" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="K84" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="L84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3959,28 +3603,25 @@
         <v>100</v>
       </c>
       <c r="G85" t="n">
-        <v>43.5897435897437</v>
+        <v>-431880.598396944</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="K85" t="n">
-        <v>7.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4002,28 +3643,25 @@
         <v>73</v>
       </c>
       <c r="G86" t="n">
-        <v>5.660377358490452</v>
+        <v>-431953.598396944</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="K86" t="n">
-        <v>7.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4045,24 +3683,25 @@
         <v>81715.4653</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>-350238.133096944</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
-      </c>
-      <c r="J87" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="K87" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="L87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4084,28 +3723,25 @@
         <v>2992.5</v>
       </c>
       <c r="G88" t="n">
-        <v>13.63636363636377</v>
+        <v>-353230.633096944</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
-      </c>
-      <c r="J88" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="K88" t="n">
-        <v>7.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4127,28 +3763,25 @@
         <v>91642.9648</v>
       </c>
       <c r="G89" t="n">
-        <v>-37.93103448275853</v>
+        <v>-444873.597896944</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
-      </c>
-      <c r="J89" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="K89" t="n">
-        <v>7.43</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4170,24 +3803,25 @@
         <v>2468.540829986613</v>
       </c>
       <c r="G90" t="n">
-        <v>-37.93103448275884</v>
+        <v>-447342.1387269307</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
-      </c>
-      <c r="J90" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="K90" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="L90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4209,28 +3843,25 @@
         <v>67400</v>
       </c>
       <c r="G91" t="n">
-        <v>-48.5714285714286</v>
+        <v>-514742.1387269307</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="K91" t="n">
-        <v>7.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4252,20 +3883,16 @@
         <v>174775.0128</v>
       </c>
       <c r="G92" t="n">
-        <v>-64.70588235294122</v>
+        <v>-689517.1515269306</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K92" t="n">
-        <v>7.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4274,6 +3901,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4295,20 +3923,16 @@
         <v>17405.161</v>
       </c>
       <c r="G93" t="n">
-        <v>-64.70588235294122</v>
+        <v>-689517.1515269306</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>1</v>
-      </c>
-      <c r="J93" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="K93" t="n">
-        <v>7.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4317,6 +3941,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4338,20 +3963,16 @@
         <v>30587.0208</v>
       </c>
       <c r="G94" t="n">
-        <v>-71.42857142857133</v>
+        <v>-689517.1515269306</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="K94" t="n">
-        <v>7.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4360,6 +3981,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4381,20 +4003,16 @@
         <v>22421.9502</v>
       </c>
       <c r="G95" t="n">
-        <v>-60.00000000000006</v>
+        <v>-711939.1017269306</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="K95" t="n">
-        <v>7.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4403,6 +4021,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4424,20 +4043,18 @@
         <v>83923.5033</v>
       </c>
       <c r="G96" t="n">
-        <v>-100.0000000000003</v>
+        <v>-711939.1017269306</v>
       </c>
       <c r="H96" t="n">
         <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
         <v>7.22</v>
       </c>
-      <c r="K96" t="n">
-        <v>7.48</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4446,6 +4063,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4467,20 +4085,18 @@
         <v>215562.9869</v>
       </c>
       <c r="G97" t="n">
-        <v>-100.0000000000003</v>
+        <v>-711939.1017269306</v>
       </c>
       <c r="H97" t="n">
         <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
         <v>7.22</v>
       </c>
-      <c r="K97" t="n">
-        <v>7.48</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4489,6 +4105,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4510,20 +4127,16 @@
         <v>10454.4518</v>
       </c>
       <c r="G98" t="n">
-        <v>-30</v>
+        <v>-701484.6499269305</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="K98" t="n">
-        <v>7.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4532,6 +4145,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4553,20 +4167,18 @@
         <v>8000</v>
       </c>
       <c r="G99" t="n">
-        <v>-37.77777777777767</v>
+        <v>-709484.6499269305</v>
       </c>
       <c r="H99" t="n">
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
         <v>7.36</v>
       </c>
-      <c r="K99" t="n">
-        <v>7.48</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4575,6 +4187,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4596,20 +4209,18 @@
         <v>19834.814</v>
       </c>
       <c r="G100" t="n">
-        <v>-23.07692307692323</v>
+        <v>-689649.8359269305</v>
       </c>
       <c r="H100" t="n">
         <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
         <v>7.3</v>
       </c>
-      <c r="K100" t="n">
-        <v>7.48</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4618,6 +4229,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4639,20 +4251,16 @@
         <v>5388.7013</v>
       </c>
       <c r="G101" t="n">
-        <v>24.99999999999982</v>
+        <v>-695038.5372269305</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
-      </c>
-      <c r="J101" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K101" t="n">
-        <v>7.48</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4661,6 +4269,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4682,28 +4291,27 @@
         <v>10</v>
       </c>
       <c r="G102" t="n">
-        <v>39.99999999999994</v>
+        <v>-695028.5372269305</v>
       </c>
       <c r="H102" t="n">
         <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
         <v>7.3</v>
       </c>
-      <c r="K102" t="n">
-        <v>7.48</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M102" t="n">
-        <v>0.9789572192513368</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4725,28 +4333,27 @@
         <v>100</v>
       </c>
       <c r="G103" t="n">
-        <v>31.24999999999986</v>
+        <v>-695128.5372269305</v>
       </c>
       <c r="H103" t="n">
         <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
         <v>7.36</v>
       </c>
-      <c r="K103" t="n">
-        <v>7.3</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-14 BackTest IOST.xlsx
+++ b/BackTest/2019-10-14 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N132"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>2857527.167003057</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,15 @@
         <v>2857527.167003057</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,15 @@
         <v>2857527.167003057</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>2857537.167003057</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>2867679.048403056</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,15 @@
         <v>2855707.167003057</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>2855717.167003057</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>2820785.060503056</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +781,15 @@
         <v>2908850.030603056</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +814,15 @@
         <v>2991047.178203056</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +847,15 @@
         <v>2648254.259203056</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>2682801.907603056</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>2672214.613803056</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>2672214.613803056</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>2665397.454003056</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>2615009.373803056</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1284,18 +1210,15 @@
         <v>2572892.001803056</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1243,15 @@
         <v>2572902.001803056</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,15 @@
         <v>2530440.786003056</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1309,15 @@
         <v>2434252.988503056</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1342,15 @@
         <v>2292083.878603056</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1375,15 @@
         <v>2301397.603603056</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1705,15 @@
         <v>1688030.602603056</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3516,18 +3256,19 @@
         <v>-26130.14249694396</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>7.31</v>
+      </c>
+      <c r="J87" t="n">
+        <v>7.31</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3295,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3334,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3373,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3410,23 @@
         <v>-313002.833896944</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+        <v>7.3</v>
+      </c>
+      <c r="J91" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3451,23 @@
         <v>-303166.7688969439</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+        <v>7.3</v>
+      </c>
+      <c r="J92" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3492,23 @@
         <v>-330246.7688969439</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+        <v>7.35</v>
+      </c>
+      <c r="J93" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3768,18 +3533,23 @@
         <v>-277895.834296944</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+        <v>7.34</v>
+      </c>
+      <c r="J94" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3576,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3615,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3654,19 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3693,19 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3732,19 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3771,19 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3810,19 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3849,19 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3888,19 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3927,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +3964,23 @@
         <v>-349118.595096944</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+        <v>7.42</v>
+      </c>
+      <c r="J105" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +4007,19 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +4044,23 @@
         <v>-351257.178096944</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+        <v>7.4</v>
+      </c>
+      <c r="J107" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +4085,23 @@
         <v>-351307.178096944</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+        <v>7.5</v>
+      </c>
+      <c r="J108" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4128,19 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4167,19 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4206,19 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4245,19 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4284,19 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4323,19 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4362,19 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4401,19 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4440,19 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4479,19 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4518,19 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4557,19 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4596,19 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4635,19 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4812,18 +4672,23 @@
         <v>-689517.1515269306</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+        <v>7.24</v>
+      </c>
+      <c r="J123" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4848,18 +4713,23 @@
         <v>-711939.1017269306</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+        <v>7.24</v>
+      </c>
+      <c r="J124" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4884,24 +4754,23 @@
         <v>-711939.1017269306</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>7.22</v>
       </c>
       <c r="J125" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+        <v>7.31</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4926,24 +4795,23 @@
         <v>-711939.1017269306</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>7.22</v>
       </c>
       <c r="J126" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
+        <v>7.31</v>
+      </c>
+      <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4968,24 +4836,23 @@
         <v>-701484.6499269305</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>7.22</v>
       </c>
       <c r="J127" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
+        <v>7.31</v>
+      </c>
+      <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5010,24 +4877,21 @@
         <v>-709484.6499269305</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
+        <v>7.31</v>
+      </c>
+      <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5052,24 +4916,21 @@
         <v>-689649.8359269305</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
+        <v>7.31</v>
+      </c>
+      <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5094,24 +4955,21 @@
         <v>-695038.5372269305</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
         <v>7.31</v>
       </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
+      <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5136,24 +4994,23 @@
         <v>-695028.5372269305</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="J131" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
+        <v>7.31</v>
+      </c>
+      <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5178,26 +5035,23 @@
         <v>-695128.5372269305</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
+        <v>7.31</v>
+      </c>
+      <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest IOST.xlsx
+++ b/BackTest/2019-10-14 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2857527.167003057</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2857527.167003057</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>2857527.167003057</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>2857537.167003057</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2867679.048403056</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>2855707.167003057</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>2855717.167003057</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>2820785.060503056</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>2820795.060503056</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2908850.030603056</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>2908850.030603056</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>2991047.178203056</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>2648254.259203056</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2613910.694703056</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2682801.907603056</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2672214.613803056</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2672214.613803056</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2664162.263203056</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2665397.454003056</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2619452.322503056</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2615009.373803056</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>2572892.001803056</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>2572902.001803056</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>2530440.786003056</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>2434252.988503056</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>2292083.878603056</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2301397.603603056</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1938093.025503056</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>1873144.955403056</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>1689969.592503056</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>1689969.592503056</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1689969.592503056</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>1688030.602603056</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -3256,14 +3256,10 @@
         <v>-26130.14249694396</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="J87" t="n">
-        <v>7.31</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
@@ -3296,1395 +3292,1169 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
         <v>7.31</v>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="C89" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="D89" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="E89" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="F89" t="n">
+        <v>10433.277</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-197668.315296944</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C90" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D90" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E90" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F90" t="n">
+        <v>115334.5186</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-313002.833896944</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C91" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D91" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E91" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1730</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-313002.833896944</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="C92" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="D92" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="E92" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="F92" t="n">
+        <v>9836.065000000001</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-303166.7688969439</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="C93" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="D93" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="E93" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="F93" t="n">
+        <v>27080</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-330246.7688969439</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="C94" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="D94" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="E94" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="F94" t="n">
+        <v>52350.9346</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-277895.834296944</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="C95" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="D95" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="E95" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="F95" t="n">
+        <v>169113.6287</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-108782.205596944</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="C96" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="D96" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="E96" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-107782.205596944</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="C97" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="D97" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="E97" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="F97" t="n">
+        <v>39411.4569</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-107782.205596944</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="C98" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="D98" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="E98" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="F98" t="n">
+        <v>65000</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-172782.205596944</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="C99" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="D99" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="E99" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="F99" t="n">
+        <v>11.5344</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-172770.671196944</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="C100" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="D100" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="E100" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="F100" t="n">
+        <v>169113.6287</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-341884.299896944</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="C101" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="D101" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="E101" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1344.086</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-343228.385896944</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="C102" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="E102" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="F102" t="n">
+        <v>9664.429</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-352892.814896944</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="C103" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E103" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F103" t="n">
+        <v>3740.7967</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-349152.018196944</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="C104" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="D104" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="E104" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="F104" t="n">
+        <v>33.4231</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-349118.595096944</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="C105" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="D105" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="E105" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="F105" t="n">
+        <v>54711.0264</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-349118.595096944</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="C106" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D106" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="E106" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F106" t="n">
+        <v>54811.026</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-403929.621096944</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="C107" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="E107" t="n">
+        <v>7.46</v>
+      </c>
+      <c r="F107" t="n">
+        <v>52672.443</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-351257.178096944</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="C108" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="D108" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="E108" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="F108" t="n">
+        <v>50</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-351307.178096944</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="C109" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="D109" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="E109" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="F109" t="n">
+        <v>44.4161</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-351262.761996944</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="C110" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="D110" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="E110" t="n">
+        <v>7.58</v>
+      </c>
+      <c r="F110" t="n">
+        <v>40077.8364</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-391340.598396944</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="C111" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="D111" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="E111" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F111" t="n">
+        <v>40640</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-431980.598396944</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="C112" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="D112" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="E112" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F112" t="n">
+        <v>39312.9283</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-431980.598396944</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="C113" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="D113" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="E113" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2609.8193</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-431980.598396944</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="C114" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="D114" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="E114" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="F114" t="n">
+        <v>100</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-431880.598396944</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="C115" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="D115" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="E115" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="F115" t="n">
+        <v>73</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-431953.598396944</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="C116" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="E116" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>81715.4653</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-350238.133096944</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="C117" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="D117" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="E117" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2992.5</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-353230.633096944</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="C118" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="D118" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="E118" t="n">
+        <v>7.48</v>
+      </c>
+      <c r="F118" t="n">
+        <v>91642.9648</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-444873.597896944</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="C119" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="D119" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="E119" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="F119" t="n">
+        <v>2468.540829986613</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-447342.1387269307</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="C120" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="D120" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="E120" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F120" t="n">
+        <v>67400</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-514742.1387269307</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="C121" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="D121" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="E121" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="F121" t="n">
+        <v>174775.0128</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-689517.1515269306</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="C122" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="D122" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="E122" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="F122" t="n">
+        <v>17405.161</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-689517.1515269306</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="C123" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="D123" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="E123" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="F123" t="n">
+        <v>30587.0208</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-689517.1515269306</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>7.24</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="C89" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="D89" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="E89" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="F89" t="n">
-        <v>10433.277</v>
-      </c>
-      <c r="G89" t="n">
-        <v>-197668.315296944</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="C90" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D90" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E90" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F90" t="n">
-        <v>115334.5186</v>
-      </c>
-      <c r="G90" t="n">
-        <v>-313002.833896944</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="C91" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D91" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E91" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F91" t="n">
-        <v>1730</v>
-      </c>
-      <c r="G91" t="n">
-        <v>-313002.833896944</v>
-      </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="J91" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="C92" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="D92" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="E92" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="F92" t="n">
-        <v>9836.065000000001</v>
-      </c>
-      <c r="G92" t="n">
-        <v>-303166.7688969439</v>
-      </c>
-      <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="J92" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="C93" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="D93" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="E93" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="F93" t="n">
-        <v>27080</v>
-      </c>
-      <c r="G93" t="n">
-        <v>-330246.7688969439</v>
-      </c>
-      <c r="H93" t="n">
-        <v>2</v>
-      </c>
-      <c r="I93" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="J93" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="C94" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="D94" t="n">
-        <v>7.38</v>
-      </c>
-      <c r="E94" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="F94" t="n">
-        <v>52350.9346</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-277895.834296944</v>
-      </c>
-      <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="J94" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="C95" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="D95" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="E95" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="F95" t="n">
-        <v>169113.6287</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-108782.205596944</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="C96" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="D96" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="E96" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="F96" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-107782.205596944</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="C97" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="D97" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="E97" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="F97" t="n">
-        <v>39411.4569</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-107782.205596944</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="C98" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D98" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="E98" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="F98" t="n">
-        <v>65000</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-172782.205596944</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="C99" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="D99" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="E99" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="F99" t="n">
-        <v>11.5344</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-172770.671196944</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="C100" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="D100" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="E100" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="F100" t="n">
-        <v>169113.6287</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-341884.299896944</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="C101" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="D101" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="E101" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="F101" t="n">
-        <v>1344.086</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-343228.385896944</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="C102" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="D102" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="E102" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="F102" t="n">
-        <v>9664.429</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-352892.814896944</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="C103" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="D103" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E103" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F103" t="n">
-        <v>3740.7967</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-349152.018196944</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="C104" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="D104" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="E104" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="F104" t="n">
-        <v>33.4231</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-349118.595096944</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="C105" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="D105" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="E105" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="F105" t="n">
-        <v>54711.0264</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-349118.595096944</v>
-      </c>
-      <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>7.42</v>
-      </c>
-      <c r="J105" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="C106" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="D106" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="E106" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F106" t="n">
-        <v>54811.026</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-403929.621096944</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="C107" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="D107" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="E107" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="F107" t="n">
-        <v>52672.443</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-351257.178096944</v>
-      </c>
-      <c r="H107" t="n">
-        <v>2</v>
-      </c>
-      <c r="I107" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J107" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="C108" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="D108" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="E108" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="F108" t="n">
-        <v>50</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-351307.178096944</v>
-      </c>
-      <c r="H108" t="n">
-        <v>2</v>
-      </c>
-      <c r="I108" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J108" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="C109" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="D109" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="E109" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="F109" t="n">
-        <v>44.4161</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-351262.761996944</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="C110" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="D110" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="E110" t="n">
-        <v>7.58</v>
-      </c>
-      <c r="F110" t="n">
-        <v>40077.8364</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-391340.598396944</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="C111" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="D111" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="E111" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="F111" t="n">
-        <v>40640</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-431980.598396944</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="C112" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="D112" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="E112" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="F112" t="n">
-        <v>39312.9283</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-431980.598396944</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="C113" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="D113" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="E113" t="n">
-        <v>7.57</v>
-      </c>
-      <c r="F113" t="n">
-        <v>2609.8193</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-431980.598396944</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="C114" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="D114" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="E114" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="F114" t="n">
-        <v>100</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-431880.598396944</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="C115" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="D115" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="E115" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="F115" t="n">
-        <v>73</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-431953.598396944</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="C116" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="D116" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="E116" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="F116" t="n">
-        <v>81715.4653</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-350238.133096944</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="C117" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="D117" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="E117" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="F117" t="n">
-        <v>2992.5</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-353230.633096944</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="C118" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="D118" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="E118" t="n">
-        <v>7.48</v>
-      </c>
-      <c r="F118" t="n">
-        <v>91642.9648</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-444873.597896944</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="C119" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="D119" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="E119" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="F119" t="n">
-        <v>2468.540829986613</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-447342.1387269307</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="C120" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="D120" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="E120" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F120" t="n">
-        <v>67400</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-514742.1387269307</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="C121" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="D121" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="E121" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="F121" t="n">
-        <v>174775.0128</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-689517.1515269306</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="C122" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="D122" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="E122" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="F122" t="n">
-        <v>17405.161</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-689517.1515269306</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="C123" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="D123" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="E123" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="F123" t="n">
-        <v>30587.0208</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-689517.1515269306</v>
-      </c>
-      <c r="H123" t="n">
-        <v>2</v>
-      </c>
-      <c r="I123" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="J123" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4713,14 +4483,12 @@
         <v>-711939.1017269306</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>7.24</v>
       </c>
-      <c r="J124" t="n">
-        <v>7.31</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4754,14 +4522,12 @@
         <v>-711939.1017269306</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>7.22</v>
       </c>
-      <c r="J125" t="n">
-        <v>7.31</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4795,14 +4561,12 @@
         <v>-711939.1017269306</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>7.22</v>
       </c>
-      <c r="J126" t="n">
-        <v>7.31</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4836,14 +4600,12 @@
         <v>-701484.6499269305</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>7.22</v>
       </c>
-      <c r="J127" t="n">
-        <v>7.31</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4877,12 +4639,12 @@
         <v>-709484.6499269305</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>7.31</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4916,12 +4678,12 @@
         <v>-689649.8359269305</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>7.31</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4955,12 +4717,12 @@
         <v>-695038.5372269305</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
         <v>7.31</v>
       </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4994,14 +4756,12 @@
         <v>-695028.5372269305</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>7.3</v>
       </c>
-      <c r="J131" t="n">
-        <v>7.31</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5035,12 +4795,12 @@
         <v>-695128.5372269305</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>7.31</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5052,6 +4812,6 @@
       <c r="M132" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest IOST.xlsx
+++ b/BackTest/2019-10-14 BackTest IOST.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>2857527.167003057</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2857527.167003057</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>2857527.167003057</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2613910.694703056</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2682801.907603056</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2672214.613803056</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2672214.613803056</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2664162.263203056</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2665397.454003056</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2619452.322503056</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2615009.373803056</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>2572902.001803056</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>2530440.786003056</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>2434252.988503056</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>2292083.878603056</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2301397.603603056</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>1938093.025503056</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>1873144.955403056</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>1689969.592503056</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>1689969.592503056</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>1689969.592503056</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>1548053.013303056</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1543829.998003056</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-444873.597896944</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-447342.1387269307</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-514742.1387269307</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-689517.1515269306</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-689517.1515269306</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4812,6 +4812,6 @@
       <c r="M132" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-14 BackTest IOST.xlsx
+++ b/BackTest/2019-10-14 BackTest IOST.xlsx
@@ -451,7 +451,7 @@
         <v>2857527.167003057</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>2857527.167003057</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>2857527.167003057</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>2857537.167003057</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>2867679.048403056</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>2855717.167003057</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>2908850.030603056</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>2648254.259203056</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>2599103.759203056</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>2613910.694703056</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>2682801.907603056</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>2672214.613803056</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>2672214.613803056</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>2664162.263203056</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>2665397.454003056</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>2619452.322503056</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>2615009.373803056</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>2572892.001803056</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>2572902.001803056</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>2530440.786003056</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>2434252.988503056</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>2292083.878603056</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>1548053.013303056</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>1543829.998003056</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-444873.597896944</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-447342.1387269307</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-514742.1387269307</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-689517.1515269306</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-689517.1515269306</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,17 +4444,11 @@
         <v>-689517.1515269306</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>7.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4483,17 +4477,11 @@
         <v>-711939.1017269306</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>7.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4530,7 +4518,7 @@
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L125" t="n">

--- a/BackTest/2019-10-14 BackTest IOST.xlsx
+++ b/BackTest/2019-10-14 BackTest IOST.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>2857527.167003057</v>
-      </c>
-      <c r="H2" t="n">
         <v>2</v>
       </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>12318.9707</v>
       </c>
       <c r="G3" t="n">
-        <v>2857527.167003057</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>9531.0293</v>
       </c>
       <c r="G4" t="n">
-        <v>2857527.167003057</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>2857537.167003057</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>10141.8814</v>
       </c>
       <c r="G6" t="n">
-        <v>2867679.048403056</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>11971.8814</v>
       </c>
       <c r="G7" t="n">
-        <v>2855707.167003057</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>2855717.167003057</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>34932.1065</v>
       </c>
       <c r="G9" t="n">
-        <v>2820785.060503056</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>2820795.060503056</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>88054.97010000001</v>
       </c>
       <c r="G11" t="n">
-        <v>2908850.030603056</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>26003.3388</v>
       </c>
       <c r="G12" t="n">
-        <v>2908850.030603056</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>82197.1476</v>
       </c>
       <c r="G13" t="n">
-        <v>2991047.178203056</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>342792.919</v>
       </c>
       <c r="G14" t="n">
-        <v>2648254.259203056</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>63131.3131</v>
       </c>
       <c r="G15" t="n">
-        <v>2648254.259203056</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>49150.5</v>
       </c>
       <c r="G16" t="n">
-        <v>2599103.759203056</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>14806.9355</v>
       </c>
       <c r="G17" t="n">
-        <v>2613910.694703056</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>68891.2129</v>
       </c>
       <c r="G18" t="n">
-        <v>2682801.907603056</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>10587.2938</v>
       </c>
       <c r="G19" t="n">
-        <v>2672214.613803056</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>4584.1643</v>
       </c>
       <c r="G20" t="n">
-        <v>2672214.613803056</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>8052.3506</v>
       </c>
       <c r="G21" t="n">
-        <v>2664162.263203056</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>1235.1908</v>
       </c>
       <c r="G22" t="n">
-        <v>2665397.454003056</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>45945.1315</v>
       </c>
       <c r="G23" t="n">
-        <v>2619452.322503056</v>
-      </c>
-      <c r="H23" t="n">
         <v>2</v>
       </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>4442.9487</v>
       </c>
       <c r="G24" t="n">
-        <v>2615009.373803056</v>
-      </c>
-      <c r="H24" t="n">
         <v>2</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>42117.372</v>
       </c>
       <c r="G25" t="n">
-        <v>2572892.001803056</v>
-      </c>
-      <c r="H25" t="n">
         <v>2</v>
       </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>10</v>
       </c>
       <c r="G26" t="n">
-        <v>2572902.001803056</v>
-      </c>
-      <c r="H26" t="n">
         <v>2</v>
       </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>42461.2158</v>
       </c>
       <c r="G27" t="n">
-        <v>2530440.786003056</v>
-      </c>
-      <c r="H27" t="n">
         <v>2</v>
       </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>96187.7975</v>
       </c>
       <c r="G28" t="n">
-        <v>2434252.988503056</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>142169.1099</v>
       </c>
       <c r="G29" t="n">
-        <v>2292083.878603056</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>9313.725</v>
       </c>
       <c r="G30" t="n">
-        <v>2301397.603603056</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>363304.5781</v>
       </c>
       <c r="G31" t="n">
-        <v>1938093.025503056</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>64948.0701</v>
       </c>
       <c r="G32" t="n">
-        <v>1873144.955403056</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>183175.3629</v>
       </c>
       <c r="G33" t="n">
-        <v>1689969.592503056</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>51.6</v>
       </c>
       <c r="G34" t="n">
-        <v>1689969.592503056</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>2222.513</v>
       </c>
       <c r="G35" t="n">
-        <v>1689969.592503056</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>150</v>
       </c>
       <c r="G36" t="n">
-        <v>1690119.592503056</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>123.5231</v>
       </c>
       <c r="G37" t="n">
-        <v>1690243.115603056</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>1690253.115603056</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>2232.513</v>
       </c>
       <c r="G39" t="n">
-        <v>1688020.602603056</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>1688030.602603056</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>31077.6259</v>
       </c>
       <c r="G41" t="n">
-        <v>1656952.976703056</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>10</v>
       </c>
       <c r="G42" t="n">
-        <v>1656962.976703056</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>104347.4125</v>
       </c>
       <c r="G43" t="n">
-        <v>1552615.564203056</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>25.3628</v>
       </c>
       <c r="G44" t="n">
-        <v>1552640.927003056</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>11239.0728</v>
       </c>
       <c r="G45" t="n">
-        <v>1541401.854203056</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>65996.2466</v>
       </c>
       <c r="G46" t="n">
-        <v>1541401.854203056</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>97.8909</v>
       </c>
       <c r="G47" t="n">
-        <v>1541499.745103056</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>7044.627</v>
       </c>
       <c r="G48" t="n">
-        <v>1548544.372103056</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>491.3588</v>
       </c>
       <c r="G49" t="n">
-        <v>1548053.013303056</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1295.2463</v>
       </c>
       <c r="G50" t="n">
-        <v>1546757.767003056</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>5400</v>
       </c>
       <c r="G51" t="n">
-        <v>1546757.767003056</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>2927.769</v>
       </c>
       <c r="G52" t="n">
-        <v>1543829.998003056</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>8256.080400000001</v>
       </c>
       <c r="G53" t="n">
-        <v>1535573.917603056</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>1535583.917603056</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>111402.0395</v>
       </c>
       <c r="G55" t="n">
-        <v>1424181.878103056</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>472038.8253</v>
       </c>
       <c r="G56" t="n">
-        <v>952143.052803056</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>108189.6272</v>
       </c>
       <c r="G57" t="n">
-        <v>843953.425603056</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>8478.5054</v>
       </c>
       <c r="G58" t="n">
-        <v>852431.931003056</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>498.375</v>
       </c>
       <c r="G59" t="n">
-        <v>851933.556003056</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>546.5743</v>
       </c>
       <c r="G60" t="n">
-        <v>852480.130303056</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>132.1343</v>
       </c>
       <c r="G61" t="n">
-        <v>852480.130303056</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>73690.016</v>
       </c>
       <c r="G62" t="n">
-        <v>778790.1143030559</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>33590.275</v>
       </c>
       <c r="G63" t="n">
-        <v>778790.1143030559</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>36679.2896</v>
       </c>
       <c r="G64" t="n">
-        <v>742110.8247030559</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>50</v>
       </c>
       <c r="G65" t="n">
-        <v>742160.8247030559</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>31374.619</v>
       </c>
       <c r="G66" t="n">
-        <v>710786.205703056</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>21581.638</v>
       </c>
       <c r="G67" t="n">
-        <v>732367.843703056</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>104300.9662</v>
       </c>
       <c r="G68" t="n">
-        <v>628066.877503056</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>122185.3246</v>
       </c>
       <c r="G69" t="n">
-        <v>505881.552903056</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>69837.7594</v>
       </c>
       <c r="G70" t="n">
-        <v>436043.793503056</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>191829.6274</v>
       </c>
       <c r="G71" t="n">
-        <v>244214.166103056</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>32035.5614</v>
       </c>
       <c r="G72" t="n">
-        <v>276249.727503056</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>43299.8884</v>
       </c>
       <c r="G73" t="n">
-        <v>232949.839103056</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>32024.1211</v>
       </c>
       <c r="G74" t="n">
-        <v>200925.718003056</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>797.023</v>
       </c>
       <c r="G75" t="n">
-        <v>200128.695003056</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>11.6373</v>
       </c>
       <c r="G76" t="n">
-        <v>200140.332303056</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>141</v>
       </c>
       <c r="G77" t="n">
-        <v>199999.332303056</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>129224.8381</v>
       </c>
       <c r="G78" t="n">
-        <v>70774.49420305603</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>5064.9009</v>
       </c>
       <c r="G79" t="n">
-        <v>65709.59330305604</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>1605</v>
       </c>
       <c r="G80" t="n">
-        <v>67314.59330305604</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>84227.76390000001</v>
       </c>
       <c r="G81" t="n">
-        <v>-16913.17059694396</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>60.4838</v>
       </c>
       <c r="G82" t="n">
-        <v>-16852.68679694396</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>23.5975</v>
       </c>
       <c r="G83" t="n">
-        <v>-16876.28429694396</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>73</v>
       </c>
       <c r="G84" t="n">
-        <v>-16876.28429694396</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>9402.550999999999</v>
       </c>
       <c r="G85" t="n">
-        <v>-26278.83529694396</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>3150</v>
       </c>
       <c r="G86" t="n">
-        <v>-26278.83529694396</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>148.6928</v>
       </c>
       <c r="G87" t="n">
-        <v>-26130.14249694396</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>181971.4498</v>
       </c>
       <c r="G88" t="n">
-        <v>-208101.592296944</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>10433.277</v>
       </c>
       <c r="G89" t="n">
-        <v>-197668.315296944</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>115334.5186</v>
       </c>
       <c r="G90" t="n">
-        <v>-313002.833896944</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>1730</v>
       </c>
       <c r="G91" t="n">
-        <v>-313002.833896944</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>9836.065000000001</v>
       </c>
       <c r="G92" t="n">
-        <v>-303166.7688969439</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>27080</v>
       </c>
       <c r="G93" t="n">
-        <v>-330246.7688969439</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>52350.9346</v>
       </c>
       <c r="G94" t="n">
-        <v>-277895.834296944</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>169113.6287</v>
       </c>
       <c r="G95" t="n">
-        <v>-108782.205596944</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>1000</v>
       </c>
       <c r="G96" t="n">
-        <v>-107782.205596944</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>39411.4569</v>
       </c>
       <c r="G97" t="n">
-        <v>-107782.205596944</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>65000</v>
       </c>
       <c r="G98" t="n">
-        <v>-172782.205596944</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>11.5344</v>
       </c>
       <c r="G99" t="n">
-        <v>-172770.671196944</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>169113.6287</v>
       </c>
       <c r="G100" t="n">
-        <v>-341884.299896944</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>1344.086</v>
       </c>
       <c r="G101" t="n">
-        <v>-343228.385896944</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>9664.429</v>
       </c>
       <c r="G102" t="n">
-        <v>-352892.814896944</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>3740.7967</v>
       </c>
       <c r="G103" t="n">
-        <v>-349152.018196944</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>33.4231</v>
       </c>
       <c r="G104" t="n">
-        <v>-349118.595096944</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>54711.0264</v>
       </c>
       <c r="G105" t="n">
-        <v>-349118.595096944</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>54811.026</v>
       </c>
       <c r="G106" t="n">
-        <v>-403929.621096944</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>52672.443</v>
       </c>
       <c r="G107" t="n">
-        <v>-351257.178096944</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>50</v>
       </c>
       <c r="G108" t="n">
-        <v>-351307.178096944</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>44.4161</v>
       </c>
       <c r="G109" t="n">
-        <v>-351262.761996944</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>40077.8364</v>
       </c>
       <c r="G110" t="n">
-        <v>-391340.598396944</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>40640</v>
       </c>
       <c r="G111" t="n">
-        <v>-431980.598396944</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>39312.9283</v>
       </c>
       <c r="G112" t="n">
-        <v>-431980.598396944</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>2609.8193</v>
       </c>
       <c r="G113" t="n">
-        <v>-431980.598396944</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>100</v>
       </c>
       <c r="G114" t="n">
-        <v>-431880.598396944</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>73</v>
       </c>
       <c r="G115" t="n">
-        <v>-431953.598396944</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>81715.4653</v>
       </c>
       <c r="G116" t="n">
-        <v>-350238.133096944</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>2992.5</v>
       </c>
       <c r="G117" t="n">
-        <v>-353230.633096944</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>91642.9648</v>
       </c>
       <c r="G118" t="n">
-        <v>-444873.597896944</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>2468.540829986613</v>
       </c>
       <c r="G119" t="n">
-        <v>-447342.1387269307</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>67400</v>
       </c>
       <c r="G120" t="n">
-        <v>-514742.1387269307</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>174775.0128</v>
       </c>
       <c r="G121" t="n">
-        <v>-689517.1515269306</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>17405.161</v>
       </c>
       <c r="G122" t="n">
-        <v>-689517.1515269306</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>30587.0208</v>
       </c>
       <c r="G123" t="n">
-        <v>-689517.1515269306</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>22421.9502</v>
       </c>
       <c r="G124" t="n">
-        <v>-711939.1017269306</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,297 +4133,269 @@
         <v>83923.5033</v>
       </c>
       <c r="G125" t="n">
-        <v>-711939.1017269306</v>
-      </c>
-      <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
         <v>7.22</v>
       </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
+      <c r="C126" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="E126" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F126" t="n">
+        <v>215562.9869</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="C127" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="D127" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="E127" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="F127" t="n">
+        <v>10454.4518</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1</v>
+      </c>
+      <c r="H127" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="I127" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="C128" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D128" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="E128" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F128" t="n">
+        <v>8000</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="I128" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="C129" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="D129" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="E129" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="F129" t="n">
+        <v>19834.814</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I129" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="C130" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="E130" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="F130" t="n">
+        <v>5388.7013</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="I130" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="J130" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="C131" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="D131" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="E131" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="F131" t="n">
+        <v>10</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="I131" t="n">
         <v>7.22</v>
       </c>
-      <c r="C126" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="D126" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="E126" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="F126" t="n">
-        <v>215562.9869</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-711939.1017269306</v>
-      </c>
-      <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
+      <c r="J131" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="C127" t="n">
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="C132" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="D132" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="E132" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="F132" t="n">
+        <v>100</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1</v>
+      </c>
+      <c r="H132" t="n">
         <v>7.36</v>
       </c>
-      <c r="D127" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="E127" t="n">
-        <v>7.28</v>
-      </c>
-      <c r="F127" t="n">
-        <v>10454.4518</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-701484.6499269305</v>
-      </c>
-      <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
+      <c r="I132" t="n">
         <v>7.22</v>
       </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
+      <c r="J132" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="C128" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D128" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E128" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F128" t="n">
-        <v>8000</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-709484.6499269305</v>
-      </c>
-      <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="C129" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="D129" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="E129" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="F129" t="n">
-        <v>19834.814</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-689649.8359269305</v>
-      </c>
-      <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="C130" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D130" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="E130" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="F130" t="n">
-        <v>5388.7013</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-695038.5372269305</v>
-      </c>
-      <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="C131" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="D131" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="E131" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="F131" t="n">
-        <v>10</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-695028.5372269305</v>
-      </c>
-      <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="C132" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="D132" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="E132" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="F132" t="n">
-        <v>100</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-695128.5372269305</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>7.36</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
